--- a/exp-data-syn.xlsx
+++ b/exp-data-syn.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17770" windowHeight="7130"/>
+    <workbookView windowWidth="21432" windowHeight="10476" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="epsp" sheetId="5" r:id="rId1"/>
-    <sheet name="ipsp" sheetId="3" r:id="rId2"/>
+    <sheet name="psp" sheetId="3" r:id="rId2"/>
     <sheet name="stp" sheetId="4" r:id="rId3"/>
     <sheet name="tau_syn" sheetId="2" r:id="rId4"/>
     <sheet name="gap" sheetId="1" r:id="rId5"/>
@@ -17,8 +17,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hanjia</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>hanjia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>hanjia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>hanjia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="172">
   <si>
     <t xml:space="preserve">Lefort et al., 2009, The Excitatory Neuronal Network of the C2 Barrel Column in Mouse Primary Somatosensory Cortex
 </t>
@@ -90,10 +166,10 @@
     <t>relative:</t>
   </si>
   <si>
-    <t>IPSP mean</t>
-  </si>
-  <si>
-    <t>relative</t>
+    <t>Cell-type-specific PSPs</t>
+  </si>
+  <si>
+    <t>PSP amp. mean</t>
   </si>
   <si>
     <t>Exc</t>
@@ -108,110 +184,121 @@
     <t>VIP</t>
   </si>
   <si>
-    <t>IPSP s.d.</t>
-  </si>
-  <si>
-    <t>s.d./mean</t>
+    <t>PSP amp. sd</t>
+  </si>
+  <si>
+    <t>sd/mean</t>
   </si>
   <si>
     <t>data from:</t>
+  </si>
+  <si>
+    <t>1. In Vivo Monosynaptic Excitatory Transmission between Layer 2 Cortical Pyramidal Neurons</t>
+  </si>
+  <si>
+    <t>2. In Vivo Measurement of Cell-Type-Specific Synaptic Connectivity and Synaptic Transmission in Layer 2/3 Mouse Barrel Cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Short-Term Plasticity of Unitary Inhibitory-to-Inhibitory
+Synapses Depends on the Presynaptic Interneuron Subtype
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer-Dependent Short-Term Synaptic Plasticity Between Excitatory Neurons in the C2 Barrel Column of Mouse Primary Somatosensory Cortex </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cercor/bhx094</t>
+  </si>
+  <si>
+    <t>S1, all layers Exc</t>
+  </si>
+  <si>
+    <t>(previous-EPSP-subtracted)</t>
+  </si>
+  <si>
+    <t>10 ms</t>
+  </si>
+  <si>
+    <t>(raw)</t>
+  </si>
+  <si>
+    <t>(n)</t>
+  </si>
+  <si>
+    <t>avg_all</t>
+  </si>
+  <si>
+    <t>avg_intra</t>
+  </si>
+  <si>
+    <t>30 ms</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>S1, L2/3, L5</t>
+  </si>
+  <si>
+    <t>Supralinear increase of recurrent inhibition during sparse activity in the somatosensory cortex</t>
+  </si>
+  <si>
+    <t>Exc to PV
+(L2/3)</t>
+  </si>
+  <si>
+    <t>Exc to SOM
+(L2/3, L5?)</t>
+  </si>
+  <si>
+    <t>dep. 1</t>
+  </si>
+  <si>
+    <t>dep. 2</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>dep. 10</t>
+  </si>
+  <si>
+    <t>S1, L2/3</t>
+  </si>
+  <si>
+    <t>(PV: constant baseline; SOM: exponential baseline)</t>
+  </si>
+  <si>
+    <t>In Vivo Measurement of Cell-Type-Specific Synaptic Connectivity and Synaptic Transmission in Layer 2/3 Mouse Barrel Cortex</t>
+  </si>
+  <si>
+    <t>20 ms</t>
+  </si>
+  <si>
+    <t>Exc to PV</t>
+  </si>
+  <si>
+    <t>Exc to SOM</t>
+  </si>
+  <si>
+    <t>50 ms</t>
+  </si>
+  <si>
+    <t>PPR 1</t>
+  </si>
+  <si>
+    <t>PPR 2</t>
+  </si>
+  <si>
+    <t>S1, L4</t>
+  </si>
+  <si>
+    <t>(EPSP how?)</t>
   </si>
   <si>
     <t xml:space="preserve">Short-Term Plasticity of Unitary Inhibitory-to-Inhibitory
 Synapses Depends on the Presynaptic Interneuron Subtype
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer-Dependent Short-Term Synaptic Plasticity Between Excitatory Neurons in the C2 Barrel Column of Mouse Primary Somatosensory Cortex </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/cercor/bhx094</t>
-  </si>
-  <si>
-    <t>S1, all layers Exc</t>
-  </si>
-  <si>
-    <t>(previous-EPSP-subtracted)</t>
-  </si>
-  <si>
-    <t>10 ms</t>
-  </si>
-  <si>
-    <t>(raw)</t>
-  </si>
-  <si>
-    <t>(n)</t>
-  </si>
-  <si>
-    <t>avg_all</t>
-  </si>
-  <si>
-    <t>avg_intra</t>
-  </si>
-  <si>
-    <t>30 ms</t>
-  </si>
-  <si>
-    <t>100 ms</t>
-  </si>
-  <si>
-    <t>S1, L2/3, L5</t>
-  </si>
-  <si>
-    <t>Supralinear increase of recurrent inhibition during sparse activity in the somatosensory cortex</t>
-  </si>
-  <si>
-    <t>Exc to PV
-(L2/3)</t>
-  </si>
-  <si>
-    <t>Exc to SOM
-(L2/3, L5?)</t>
-  </si>
-  <si>
-    <t>dep. 1</t>
-  </si>
-  <si>
-    <t>dep. 2</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>dep. 10</t>
-  </si>
-  <si>
-    <t>S1, L2/3</t>
-  </si>
-  <si>
-    <t>(PV: constant baseline; SOM: exponential baseline)</t>
-  </si>
-  <si>
-    <t>In Vivo Measurement of Cell-Type-Specific Synaptic Connectivity and Synaptic Transmission in Layer 2/3 Mouse Barrel Cortex</t>
-  </si>
-  <si>
-    <t>20 ms</t>
-  </si>
-  <si>
-    <t>Exc to PV</t>
-  </si>
-  <si>
-    <t>Exc to SOM</t>
-  </si>
-  <si>
-    <t>50 ms</t>
-  </si>
-  <si>
-    <t>PPR 1</t>
-  </si>
-  <si>
-    <t>PPR 2</t>
-  </si>
-  <si>
-    <t>S1, L4</t>
-  </si>
-  <si>
-    <t>(EPSP how?)</t>
   </si>
   <si>
     <t>FS-RS</t>
@@ -630,14 +717,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,7 +824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2" tint="-0.5"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -745,7 +832,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -777,15 +879,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,24 +909,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -839,46 +933,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,7 +950,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,22 +963,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,13 +1053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1089,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,31 +1197,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,103 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,21 +1468,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1376,26 +1478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,157 +1496,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,7 +1699,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1625,54 +1741,63 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,1256 +2119,1216 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" s="45" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="51" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="45" customFormat="1" ht="14" spans="1:1">
-      <c r="A2" s="48" t="s">
+    <row r="2" s="51" customFormat="1" ht="13.2" spans="1:1">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="45" customFormat="1" ht="14" spans="1:5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49" t="s">
+    <row r="3" s="51" customFormat="1" ht="13.2" spans="1:5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="56">
         <f>(SUMPRODUCT(B18:C19,B34:C35)/SUM(B34:C35))</f>
         <v>0.700092592592593</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="56">
         <f>(SUMPRODUCT(D18:D19,D34:D35)/SUM(D34:D35))</f>
         <v>0.78</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="56">
         <f>(SUMPRODUCT(E18:F19,E34:F35)/SUM(E34:F35))</f>
         <v>0.467333333333333</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="57">
         <f>AVERAGE(E6:E7)</f>
         <v>0.378333333333333</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-    </row>
-    <row r="5" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A5" s="49" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="56">
         <f>SUMPRODUCT(B20:C20,B36:C36)/SUM(B36:C36)</f>
         <v>0.343333333333333</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="56">
         <f>D20</f>
         <v>0.95</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="56">
         <f>SUMPRODUCT(E20:F20,E36:F36)/SUM(E36:F36)</f>
         <v>0.376666666666667</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="57">
         <f>AVERAGE(E6:E7)</f>
         <v>0.378333333333333</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-    </row>
-    <row r="6" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A6" s="49" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="56">
         <f>SUMPRODUCT(B21:C22,B37:C38)/SUM(B37:C38)</f>
         <v>0.700555555555555</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="56">
         <f>SUMPRODUCT(D21:D22,D37:D38)/SUM(D37:D38)</f>
         <v>0.626976744186047</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="56">
         <f>(SUMPRODUCT(E21:F22,E37:F38)/SUM(E37:F38))</f>
         <v>0.676255319148936</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="56">
         <f>(SUMPRODUCT(G21:G22,G37:G38)/SUM(G37:G38))</f>
         <v>0.226666666666667</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-    </row>
-    <row r="7" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="57">
         <f>AVERAGE(B4:B6)</f>
         <v>0.581327160493827</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="56">
         <f>D23</f>
         <v>2.27</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="56">
         <f>(SUMPRODUCT(E23:F23,E39:F39)/SUM(E39:F39))</f>
         <v>0.4025</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="56">
         <f>G23</f>
         <v>0.53</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="68">
         <f>AVERAGE(B4:D6,E6,C7:E7)</f>
         <v>0.69618309319101</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-    </row>
-    <row r="8" s="45" customFormat="1" ht="14" spans="2:12">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="62"/>
-    </row>
-    <row r="9" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A9" s="53" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" s="51" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" s="45" customFormat="1" ht="14" spans="2:12">
-      <c r="B10" s="45" t="s">
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" s="51" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="62"/>
-    </row>
-    <row r="11" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A11" s="45" t="s">
+      <c r="L10" s="68"/>
+    </row>
+    <row r="11" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="58">
         <f>SQRT(SUMPRODUCT(B26:C27,B42:C43)/SUM(B42:C43))</f>
         <v>0.627113784024245</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="58">
         <f>SQRT(SUMPRODUCT(D26:D27,D42:D43)/SUM(D42:D43))</f>
         <v>0.965012953280939</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="58">
         <f>SQRT((E26*E42+F27*F43)/(E42+F43))</f>
         <v>0.354288018425687</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="58">
         <v>0</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="62">
+      <c r="G11" s="68">
         <f t="shared" ref="G11:G13" si="0">B11/B4</f>
         <v>0.895758347766413</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="68">
         <f t="shared" ref="H11:H14" si="1">C11/C4</f>
         <v>1.23719609394992</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="68">
         <f t="shared" ref="I11:I14" si="2">D11/D4</f>
         <v>0.758105602908032</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="69">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L11" s="62"/>
-    </row>
-    <row r="12" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A12" s="45" t="s">
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A12" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="58">
         <f>SQRT(C28)</f>
         <v>0.18</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="58">
         <f>SQRT(D28)</f>
         <v>1.27499019604074</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="58">
         <v>0</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="58">
         <v>0</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="62">
+      <c r="G12" s="68">
         <f t="shared" si="0"/>
         <v>0.524271844660194</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="68">
         <f t="shared" si="1"/>
         <v>1.34209494320078</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="69">
         <f>AVERAGE(I11,I13,I14)</f>
         <v>0.956619127770427</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="69">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L12" s="62"/>
-    </row>
-    <row r="13" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A13" s="45" t="s">
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A13" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="58">
         <f>SQRT(SUMPRODUCT(B29:C30,B45:C46)/SUM(B45:C46))</f>
         <v>0.736955900987298</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="58">
         <f>SQRT(SUMPRODUCT(D29:D30,D45:D46)/SUM(D45:D46))</f>
         <v>0.603045118240871</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="58">
         <f>(SUMPRODUCT(E29:F30,E45:F46)/SUM(E45:F46))</f>
         <v>0.837114285714286</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="58">
         <v>0</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="68">
         <f t="shared" si="0"/>
         <v>1.05195925596918</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="68">
         <f t="shared" si="1"/>
         <v>0.961830121823348</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="68">
         <f t="shared" si="2"/>
         <v>1.23786721081586</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="69">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L13" s="62"/>
-    </row>
-    <row r="14" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A14" s="45" t="s">
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="58">
         <v>0</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="58">
         <f>SQRT(D31)</f>
         <v>2.97912738901847</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="58">
         <f>SQRT(SUMPRODUCT(E31:F31,E47:F47)/SUM(E47:F47))</f>
         <v>0.351738539258922</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="58">
         <f>SQRT(G31)</f>
         <v>0.735866835779409</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="51">
         <f>AVERAGEIF(B11:E14,"&gt;0")</f>
         <v>0.876841183706442</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="69">
         <f>AVERAGE(G11:G13)</f>
         <v>0.823996482798596</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="68">
         <f t="shared" si="1"/>
         <v>1.31239092027245</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="68">
         <f t="shared" si="2"/>
         <v>0.873884569587383</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="68">
         <f>E14/E7</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L14" s="62"/>
-    </row>
-    <row r="15" s="45" customFormat="1" ht="14" spans="2:12">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="62"/>
-    </row>
-    <row r="16" s="45" customFormat="1" ht="14" spans="1:12">
-      <c r="A16" s="45" t="s">
+      <c r="L14" s="68"/>
+    </row>
+    <row r="15" s="51" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="L15" s="68"/>
+    </row>
+    <row r="16" s="51" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="62"/>
-    </row>
-    <row r="17" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A17" s="53" t="s">
+      <c r="L16" s="68"/>
+    </row>
+    <row r="17" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A18" s="45" t="s">
+    <row r="18" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="51">
         <v>0.64</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="51">
         <v>0.71</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="51">
         <v>0.98</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="51">
         <v>0.52</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="51">
         <v>0.21</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A19" s="45" t="s">
+    <row r="19" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A19" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="51">
         <v>0.44</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="51">
         <v>0.78</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="51">
         <v>0.58</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="51">
         <v>0.67</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="51">
         <v>0.26</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A20" s="45" t="s">
+    <row r="20" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A20" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="51">
         <v>0.31</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="51">
         <v>0.36</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="51">
         <v>0.95</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="51">
         <v>0.48</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="51">
         <v>0.17</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A21" s="45" t="s">
+    <row r="21" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="51">
         <v>0.55</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="51">
         <v>0.93</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="51">
         <v>0.54</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="51">
         <v>0.66</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="51">
         <v>0.24</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="51">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A22" s="45" t="s">
+    <row r="22" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A22" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="51">
         <v>0.22</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="51">
         <v>1.01</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="51">
         <v>0.88</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="51">
         <v>0.88</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="51">
         <v>0.71</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="51">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A23" s="45" t="s">
+    <row r="23" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="51">
         <v>0</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="51">
         <v>0</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="51">
         <v>2.27</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="51">
         <v>0.28</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="51">
         <v>0.49</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="51">
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" s="45" customFormat="1" ht="14"/>
-    <row r="25" s="45" customFormat="1" ht="14" spans="1:9">
-      <c r="A25" s="53" t="s">
+    <row r="24" s="51" customFormat="1" ht="13.2"/>
+    <row r="25" s="51" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A25" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A26" s="45" t="s">
+    <row r="26" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A26" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="51">
         <f t="shared" ref="B26:G26" si="3">(I26^2)*B34</f>
         <v>0.3168</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="51">
         <f t="shared" si="3"/>
         <v>0.495</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="51">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="51">
         <f t="shared" si="3"/>
         <v>0.1521</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="51">
         <v>0.06</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="51">
         <v>0.15</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="51">
         <v>0.24</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="51">
         <v>0.13</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="51">
         <v>0</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A27" s="45" t="s">
+    <row r="27" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A27" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="51">
         <f t="shared" ref="B27:G27" si="4">(I27^2)*B35</f>
         <v>0.081</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="51">
         <f t="shared" si="4"/>
         <v>0.4704</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="51">
         <f t="shared" si="4"/>
         <v>0.4225</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="51">
         <f t="shared" si="4"/>
         <v>0.0192</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="51">
         <v>0.09</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="51">
         <v>0.07</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="51">
         <v>0.13</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="51">
         <v>0</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="51">
         <v>0.08</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A28" s="45" t="s">
+    <row r="28" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A28" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="51">
         <f t="shared" ref="B28:G28" si="5">(I28^2)*B36</f>
         <v>0</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="51">
         <f t="shared" si="5"/>
         <v>0.0324</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="51">
         <f t="shared" si="5"/>
         <v>1.6256</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="51">
         <v>0</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="51">
         <v>0.09</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="51">
         <v>0.08</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="51">
         <v>0</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="51">
         <v>0</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A29" s="45" t="s">
+    <row r="29" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A29" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="51">
         <f t="shared" ref="B29:G29" si="6">(I29^2)*B37</f>
         <v>0.2</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="51">
         <f t="shared" si="6"/>
         <v>0.338</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="51">
         <f t="shared" si="6"/>
         <v>0.2592</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="51">
         <f t="shared" si="6"/>
         <v>0.6408</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="51">
         <f t="shared" si="6"/>
         <v>0.0243</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="51">
         <v>0.1</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="51">
         <v>0.26</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="51">
         <v>0.09</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="51">
         <v>0.06</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="51">
         <v>0.09</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A30" s="45" t="s">
+    <row r="30" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A30" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="51">
         <f t="shared" ref="B30:G30" si="7">(I30^2)*B38</f>
         <v>0.0144</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="51">
         <f t="shared" si="7"/>
         <v>1.152</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="51">
         <f t="shared" si="7"/>
         <v>0.6875</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="51">
         <f t="shared" si="7"/>
         <v>1.8144</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="51">
         <f t="shared" si="7"/>
         <v>1.444</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="51">
         <v>0.04</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="51">
         <v>0.24</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="51">
         <v>0.25</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="51">
         <v>0.36</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="51">
         <v>0.19</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="45" customFormat="1" ht="14" spans="1:14">
-      <c r="A31" s="45" t="s">
+    <row r="31" s="51" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A31" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="51">
         <f t="shared" ref="B31:G31" si="8">(I31^2)*B39</f>
         <v>0</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="51">
         <f t="shared" si="8"/>
         <v>8.8752</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="51">
         <f t="shared" si="8"/>
         <v>0.0405</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="51">
         <f t="shared" si="8"/>
         <v>0.1792</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="51">
         <f t="shared" si="8"/>
         <v>0.5415</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="51">
         <v>0</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="51">
         <v>0</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="51">
         <v>1.72</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="51">
         <v>0.09</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="51">
         <v>0.16</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="51">
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" s="45" customFormat="1" ht="14.75"/>
-    <row r="33" s="45" customFormat="1" ht="14.75" spans="1:7">
-      <c r="A33" s="53" t="s">
+    <row r="32" s="51" customFormat="1" ht="13.95"/>
+    <row r="33" s="51" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A33" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A34" s="54" t="s">
+    <row r="34" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A34" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="60">
         <v>88</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="61">
         <v>22</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="62">
         <v>25</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="60">
         <v>9</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="61">
         <v>1</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="45" customFormat="1" ht="14.75" spans="1:7">
-      <c r="A35" s="57" t="s">
+    <row r="35" s="51" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A35" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="63">
         <v>10</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="64">
         <v>96</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="65">
         <v>25</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="63">
         <v>2</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="64">
         <v>3</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="64">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="45" customFormat="1" ht="14.75" spans="1:7">
-      <c r="A36" s="45" t="s">
+    <row r="36" s="51" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A36" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="66">
         <v>2</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="67">
         <v>4</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="51">
         <v>254</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="66">
         <v>2</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="67">
         <v>1</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A37" s="54" t="s">
+    <row r="37" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A37" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="60">
         <v>20</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="61">
         <v>5</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="62">
         <v>32</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="60">
         <v>178</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="61">
         <v>3</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="45" customFormat="1" ht="14.75" spans="1:8">
-      <c r="A38" s="57" t="s">
+    <row r="38" s="51" customFormat="1" ht="13.95" spans="1:8">
+      <c r="A38" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="63">
         <v>9</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="64">
         <v>20</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="65">
         <v>11</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="63">
         <v>14</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="64">
         <v>40</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="64">
         <v>2</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" s="45" customFormat="1" ht="14.75" spans="1:8">
-      <c r="A39" s="45" t="s">
+    <row r="39" s="51" customFormat="1" ht="13.95" spans="1:8">
+      <c r="A39" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="63">
         <v>0</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="64">
         <v>0</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="51">
         <v>3</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="63">
         <v>5</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="64">
         <v>7</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="51">
         <v>15</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="68">
         <f>(SUMPRODUCT(B18:G23,B34:G39))/SUM(B34:G39)</f>
         <v>0.754345434543454</v>
       </c>
     </row>
-    <row r="40" s="45" customFormat="1" ht="14"/>
-    <row r="41" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A41" s="53" t="s">
+    <row r="40" s="51" customFormat="1" ht="13.2"/>
+    <row r="41" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A41" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A42" s="45" t="s">
+    <row r="42" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A42" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="51">
         <f t="shared" ref="B42:G42" si="9">B34-1</f>
         <v>87</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="51">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="51">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="51">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="51">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A43" s="45" t="s">
+    <row r="43" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A43" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="45">
+      <c r="B43" s="51">
         <f t="shared" ref="B43:G43" si="10">B35-1</f>
         <v>9</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="51">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="51">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="51">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="51">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="51">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A44" s="45" t="s">
+    <row r="44" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A44" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="51">
         <f t="shared" ref="B44:G44" si="11">B36-1</f>
         <v>1</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="51">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="51">
         <f t="shared" si="11"/>
         <v>253</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="51">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="51">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="51">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" s="45" customFormat="1" ht="14" spans="1:7">
-      <c r="A45" s="45" t="s">
+    <row r="45" s="51" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A45" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="51">
         <f t="shared" ref="B45:G45" si="12">B37-1</f>
         <v>19</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="51">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="51">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="51">
         <f t="shared" si="12"/>
         <v>177</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="51">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="45" customFormat="1" ht="14" spans="1:9">
-      <c r="A46" s="45" t="s">
+    <row r="46" s="51" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A46" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="51">
         <f t="shared" ref="B46:G46" si="13">B38-1</f>
         <v>8</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="51">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="51">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="51">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="51">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="51">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" s="45" customFormat="1" ht="14" spans="1:9">
-      <c r="A47" s="45" t="s">
+    <row r="47" s="51" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A47" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="45">
+      <c r="B47" s="51">
         <f t="shared" ref="B47:G47" si="14">B39-1</f>
         <v>-1</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="51">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="51">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="51">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="51">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="51">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="68">
         <f>SQRT(SUMPRODUCT(B26:G31,B42:G47)/SUMIF(B42:G47,"&gt;1"))</f>
         <v>0.958348956858684</v>
       </c>
-      <c r="I47" s="62">
+      <c r="I47" s="68">
         <f>H47/H39</f>
         <v>1.27043780339003</v>
       </c>
@@ -3257,394 +3342,351 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD65536"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.15" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.15" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="8.15" style="38"/>
-    <col min="3" max="4" width="11.8166666666667" style="38"/>
-    <col min="5" max="8" width="8.15" style="38"/>
-    <col min="9" max="10" width="11.8166666666667" style="38"/>
-    <col min="11" max="16384" width="8.15" style="38"/>
+    <col min="1" max="2" width="8.15" style="37"/>
+    <col min="3" max="4" width="11.8166666666667" style="37"/>
+    <col min="5" max="8" width="8.15" style="37"/>
+    <col min="9" max="10" width="11.8166666666667" style="37"/>
+    <col min="11" max="16384" width="8.15" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" spans="1:1">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="38" customFormat="1" spans="1:7">
-      <c r="A2" s="38" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+    </row>
+    <row r="2" s="37" customFormat="1" spans="1:1">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="38" customFormat="1" spans="2:11">
-      <c r="B3" s="38" t="s">
+    <row r="3" s="37" customFormat="1" spans="2:5">
+      <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+    </row>
+    <row r="4" s="37" customFormat="1" spans="1:11">
+      <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" s="38" customFormat="1" spans="1:11">
-      <c r="A4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40">
+      <c r="B4" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="C4" s="39">
         <v>2.7</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>1.04</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <f>AVERAGE(C4:C6,D4:D5)</f>
         <v>1.746</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40">
-        <f>C4/$C$4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="40">
-        <f>D4/$C$4</f>
-        <v>0.385185185185185</v>
-      </c>
-      <c r="K4" s="41">
-        <f>AVERAGE($I$4:$I$6,$J$4:$J$5)</f>
-        <v>0.646666666666667</v>
-      </c>
-    </row>
-    <row r="5" s="38" customFormat="1" spans="1:11">
-      <c r="A5" s="38" t="s">
+      <c r="F4" s="48"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" s="37" customFormat="1" spans="1:11">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40">
+      <c r="B5" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="C5" s="39">
         <v>1.79</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>1.38</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <f t="shared" ref="E5:E7" si="0">E4</f>
         <v>1.746</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40">
-        <f>C5/$C$4</f>
-        <v>0.662962962962963</v>
-      </c>
-      <c r="J5" s="40">
-        <f>D5/$C$4</f>
-        <v>0.511111111111111</v>
-      </c>
-      <c r="K5" s="41">
-        <f>AVERAGE($I$4:$I$6,$J$4:$J$5)</f>
-        <v>0.646666666666667</v>
-      </c>
-    </row>
-    <row r="6" s="38" customFormat="1" spans="1:11">
-      <c r="A6" s="38" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" s="37" customFormat="1" spans="1:11">
+      <c r="A6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="B6" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="39">
         <v>1.82</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <f>AVERAGE(D4:D5)</f>
         <v>1.21</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <f t="shared" si="0"/>
         <v>1.746</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40">
-        <f>C6/$C$4</f>
-        <v>0.674074074074074</v>
-      </c>
-      <c r="J6" s="41">
-        <f>AVERAGE(J4:J5)</f>
-        <v>0.448148148148148</v>
-      </c>
-      <c r="K6" s="41">
-        <f>AVERAGE($I$4:$I$6,$J$4:$J$5)</f>
-        <v>0.646666666666667</v>
-      </c>
-    </row>
-    <row r="7" s="38" customFormat="1" spans="1:11">
-      <c r="A7" s="38" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" s="37" customFormat="1" spans="1:11">
+      <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41">
+      <c r="B7" s="41">
+        <f>AVERAGE(B4:B6)</f>
+        <v>0.486666666666667</v>
+      </c>
+      <c r="C7" s="40">
         <f>AVERAGE(C4:C6)</f>
         <v>2.10333333333333</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <f>AVERAGE(D4:D5)</f>
         <v>1.21</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <f t="shared" si="0"/>
         <v>1.746</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="9" s="37" customFormat="1" hidden="1" spans="1:1">
+      <c r="A9" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="37" customFormat="1" hidden="1" spans="2:5">
+      <c r="B10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41">
-        <f>AVERAGE(I4:I6)</f>
-        <v>0.779012345679012</v>
-      </c>
-      <c r="J7" s="41">
-        <f>AVERAGE(J4:J5)</f>
-        <v>0.448148148148148</v>
-      </c>
-      <c r="K7" s="41">
-        <f>AVERAGE($I$4:$I$6,$J$4:$J$5)</f>
-        <v>0.646666666666667</v>
-      </c>
-    </row>
-    <row r="9" s="38" customFormat="1" spans="1:1">
-      <c r="A9" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="38" customFormat="1" spans="2:5">
-      <c r="B10" s="38" t="s">
+    </row>
+    <row r="11" s="37" customFormat="1" hidden="1" spans="1:11">
+      <c r="A11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" s="38" customFormat="1" spans="1:11">
-      <c r="A11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="B11" s="37">
+        <v>0.07</v>
+      </c>
+      <c r="C11" s="37">
         <v>0.68</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0.18</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" s="38" customFormat="1" spans="1:11">
-      <c r="A12" s="38" t="s">
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" s="37" customFormat="1" hidden="1" spans="1:11">
+      <c r="A12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38">
+      <c r="B12" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="C12" s="37">
         <v>0.19</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0.22</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" s="38" customFormat="1" spans="1:11">
-      <c r="A13" s="38" t="s">
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" s="37" customFormat="1" hidden="1" spans="1:11">
+      <c r="A13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38">
+      <c r="B13" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="C13" s="37">
         <v>0.33</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" s="38" customFormat="1" spans="1:11">
-      <c r="A14" s="38" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" s="37" customFormat="1" hidden="1" spans="1:11">
+      <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="16" s="38" customFormat="1" spans="1:1">
-      <c r="A16" s="38" t="s">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" hidden="1"/>
+    <row r="16" s="37" customFormat="1" hidden="1" spans="1:1">
+      <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" s="38" customFormat="1" spans="2:5">
-      <c r="B17" s="38" t="s">
+    <row r="17" s="37" customFormat="1" hidden="1" spans="2:5">
+      <c r="B17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" s="38" customFormat="1" spans="1:5">
-      <c r="A18" s="38" t="s">
+    <row r="18" s="37" customFormat="1" hidden="1" spans="1:5">
+      <c r="A18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="40">
+      <c r="B18" s="42">
+        <f>B11/B4</f>
+        <v>0.162790697674419</v>
+      </c>
+      <c r="C18" s="43">
         <f t="shared" ref="C18:C20" si="1">C11/C4</f>
         <v>0.251851851851852</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="43">
         <f>D11/D4</f>
         <v>0.173076923076923</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="44">
         <f t="shared" ref="E18:E21" si="2">AVERAGE($C$18:$C$20,$D$18:$D$19)</f>
         <v>0.174362599499835</v>
       </c>
     </row>
-    <row r="19" s="38" customFormat="1" spans="1:5">
-      <c r="A19" s="38" t="s">
+    <row r="19" s="37" customFormat="1" hidden="1" spans="1:5">
+      <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="40">
+      <c r="B19" s="42">
+        <f>B12/B5</f>
+        <v>0.735849056603774</v>
+      </c>
+      <c r="C19" s="43">
         <f t="shared" si="1"/>
         <v>0.106145251396648</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="43">
         <f>D12/D5</f>
         <v>0.159420289855072</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="44">
         <f t="shared" si="2"/>
         <v>0.174362599499835</v>
       </c>
     </row>
-    <row r="20" s="38" customFormat="1" spans="1:5">
-      <c r="A20" s="38" t="s">
+    <row r="20" s="37" customFormat="1" hidden="1" spans="1:5">
+      <c r="A20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="40">
+      <c r="B20" s="42">
+        <f>B13/B6</f>
+        <v>1.72</v>
+      </c>
+      <c r="C20" s="43">
         <f t="shared" si="1"/>
         <v>0.181318681318681</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="44">
         <f>AVERAGE(D18:D19)</f>
         <v>0.166248606465998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="44">
         <f t="shared" si="2"/>
         <v>0.174362599499835</v>
       </c>
     </row>
-    <row r="21" s="38" customFormat="1" spans="1:5">
-      <c r="A21" s="38" t="s">
+    <row r="21" s="37" customFormat="1" hidden="1" spans="1:5">
+      <c r="A21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41">
+      <c r="B21" s="45">
+        <f>AVERAGE(B18:B20)</f>
+        <v>0.872879918092731</v>
+      </c>
+      <c r="C21" s="44">
         <f>AVERAGE(C18:C20)</f>
         <v>0.17977192818906</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="44">
         <f>AVERAGE(D18:D19)</f>
         <v>0.166248606465998</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="44">
         <f t="shared" si="2"/>
         <v>0.174362599499835</v>
       </c>
     </row>
-    <row r="23" s="38" customFormat="1" spans="1:1">
-      <c r="A23" s="38" t="s">
+    <row r="22" hidden="1"/>
+    <row r="23" s="37" customFormat="1" spans="1:1">
+      <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" s="38" customFormat="1" spans="1:1">
-      <c r="A24" s="43" t="s">
+    <row r="24" s="37" customFormat="1" spans="1:1">
+      <c r="A24" s="46" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="25" s="37" customFormat="1" spans="1:1">
+      <c r="A25" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" s="37" customFormat="1" ht="12" customHeight="1" spans="1:1">
+      <c r="A26" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" display="Short-Term Plasticity of Unitary Inhibitory-to-Inhibitory&#10;Synapses Depends on the Presynaptic Interneuron Subtype&#10;"/>
+    <hyperlink ref="A26" r:id="rId3" display="3. Short-Term Plasticity of Unitary Inhibitory-to-Inhibitory&#10;Synapses Depends on the Presynaptic Interneuron Subtype&#10;"/>
+    <hyperlink ref="A24" r:id="rId4" display="1. In Vivo Monosynaptic Excitatory Transmission between Layer 2 Cortical Pyramidal Neurons"/>
+    <hyperlink ref="A25" r:id="rId5" display="2. In Vivo Measurement of Cell-Type-Specific Synaptic Connectivity and Synaptic Transmission in Layer 2/3 Mouse Barrel Cortex"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3657,1844 +3699,1809 @@
       <selection activeCell="A1" sqref="$A1:$XFD65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.15" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.15" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.4916666666667" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.9166666666667" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.2416666666667" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.36666666666667" style="22"/>
-    <col min="5" max="5" width="14.3583333333333" style="22"/>
-    <col min="6" max="6" width="2.55" style="22" customWidth="1"/>
-    <col min="7" max="13" width="9.36666666666667" style="22"/>
-    <col min="14" max="14" width="2.34166666666667" style="22" customWidth="1"/>
-    <col min="15" max="15" width="8.15" style="22"/>
-    <col min="16" max="20" width="10.6916666666667" style="22"/>
-    <col min="21" max="21" width="9.36666666666667" style="22"/>
-    <col min="22" max="16384" width="8.15" style="22"/>
+    <col min="1" max="1" width="21.4916666666667" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.9166666666667" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.2416666666667" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.36666666666667" style="21"/>
+    <col min="5" max="5" width="14.3583333333333" style="21"/>
+    <col min="6" max="6" width="2.55" style="21" customWidth="1"/>
+    <col min="7" max="13" width="9.36666666666667" style="21"/>
+    <col min="14" max="14" width="2.34166666666667" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.15" style="21"/>
+    <col min="16" max="20" width="10.6916666666667" style="21"/>
+    <col min="21" max="21" width="9.36666666666667" style="21"/>
+    <col min="22" max="16384" width="8.15" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:2">
-      <c r="A1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" s="22" customFormat="1" spans="1:2">
-      <c r="A2" s="22" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="22" customFormat="1" spans="1:21">
-      <c r="A4" s="22" t="s">
+    <row r="2" s="21" customFormat="1" spans="1:2">
+      <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" s="21" customFormat="1" spans="1:21">
+      <c r="A4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="29" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="22" customFormat="1" spans="1:21">
-      <c r="A5" s="22" t="s">
+    <row r="5" s="21" customFormat="1" spans="1:21">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <f>SUMPRODUCT(H5:I6,P5:Q6)/SUM(P5:Q6)</f>
         <v>1.21424657534247</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <f>SUMPRODUCT(J5:J6,R5:R6)/SUM(R5:R6)</f>
         <v>0.951818181818182</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>SUMPRODUCT(K5:L6,S5:T6)/SUM(S5:T6)</f>
         <v>1.014</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="24"/>
+      <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>1.43</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>1.19</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>0.87</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>0.81</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="33" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <v>37</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <v>12</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="32">
         <v>12</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="28">
         <v>2</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-    </row>
-    <row r="6" s="22" customFormat="1" spans="1:21">
-      <c r="A6" s="22" t="s">
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" s="21" customFormat="1" spans="1:21">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <f>SUMPRODUCT(H7:I7,P7:Q7)/SUM(P7:Q7)</f>
         <v>1.09</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <f>J7</f>
         <v>0.69</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <f>K7</f>
         <v>0.3</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="24"/>
+      <c r="G6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>1.34</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>0.83</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>1.05</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>1.3</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>0.85</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="35" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <v>3</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <v>21</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <v>10</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="29">
         <v>2</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <v>1</v>
       </c>
-      <c r="U6" s="34"/>
-    </row>
-    <row r="7" s="22" customFormat="1" spans="1:20">
-      <c r="A7" s="22" t="s">
+      <c r="U6" s="33"/>
+    </row>
+    <row r="7" s="21" customFormat="1" spans="1:20">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <f>SUMPRODUCT(H8:I9,P8:Q9)/SUM(P8:Q9)</f>
         <v>1.07565217391304</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <f>SUMPRODUCT(J8:J9,R8:R9)/SUM(R8:R9)</f>
         <v>0.847894736842105</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <f>SUMPRODUCT(K8:L9,S8:T9)/SUM(S8:T9)</f>
         <v>0.829433962264151</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f>M9</f>
         <v>2.12</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>1.83</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>0.72</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>0.69</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="30">
         <v>0.3</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="22" t="s">
+      <c r="L7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="30">
         <v>1</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <v>74</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="30">
         <v>2</v>
       </c>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" s="22" customFormat="1" spans="1:21">
-      <c r="A8" s="22" t="s">
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" s="21" customFormat="1" spans="1:21">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24">
         <f>J10</f>
         <v>0.97</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f>SUMPRODUCT(K10:L10,S10:T10)/SUM(S10:T10)</f>
         <v>1.135</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f>M10</f>
         <v>0.99</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>1.29</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>0.85</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>0.99</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>0.71</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>0.39</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="33" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="28">
         <v>12</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="31">
         <v>2</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="32">
         <v>13</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="28">
         <v>35</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="31">
         <v>1</v>
       </c>
-      <c r="U8" s="32"/>
-    </row>
-    <row r="9" s="22" customFormat="1" spans="4:21">
-      <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" s="21" customFormat="1" spans="4:21">
+      <c r="D9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="21">
         <f>AVERAGE(B5:E8)</f>
         <v>1.0175419715523</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="34">
+      <c r="H9" s="29"/>
+      <c r="I9" s="33">
         <v>0.84</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>0.54</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>1.06</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <v>1.11</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>2.12</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="36"/>
+      <c r="O9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="34">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="33">
         <v>9</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="34">
         <v>6</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="29">
         <v>3</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="33">
         <v>14</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="1" spans="4:21">
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="22">
+    <row r="10" s="21" customFormat="1" spans="4:21">
+      <c r="D10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="21">
         <f>AVERAGE(B5,C6,D7,E8)</f>
         <v>0.930920134401654</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="22">
+      <c r="H10" s="29"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="21">
         <v>0.97</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>1.45</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <v>1.03</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>0.99</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="22">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="21">
         <v>2</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="29">
         <v>1</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="33">
         <v>3</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="22" customFormat="1" spans="1:21">
-      <c r="A13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="13" s="21" customFormat="1" spans="1:21">
+      <c r="A13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="29" t="s">
+      <c r="N13" s="36"/>
+      <c r="O13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="22" t="s">
+      <c r="U13" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" spans="1:21">
-      <c r="A14" s="22" t="s">
+    <row r="14" s="21" customFormat="1" spans="1:21">
+      <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <f>SUMPRODUCT(H14:I15,P14:Q15)/SUM(P14:Q15)</f>
         <v>1.32328767123288</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <f>SUMPRODUCT(J14:J15,R14:R15)/SUM(R14:R15)</f>
         <v>0.923636363636364</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>SUMPRODUCT(K14:L15,S14:T15)/SUM(S14:T15)</f>
         <v>1.038</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>1.47</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>1.39</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>0.91</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>0.91</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="33" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="28">
         <v>37</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="31">
         <v>12</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="32">
         <v>12</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="28">
         <v>2</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-    </row>
-    <row r="15" s="22" customFormat="1" spans="1:21">
-      <c r="A15" s="22" t="s">
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" s="21" customFormat="1" spans="1:21">
+      <c r="A15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <f>SUMPRODUCT(H16:I16,P16:Q16)/SUM(P16:Q16)</f>
         <v>1.03</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <f>J16</f>
         <v>0.78</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>K16</f>
         <v>0.51</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>1.23</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>1.04</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>0.94</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>1.38</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="33">
         <v>0.61</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="35" t="s">
+      <c r="M15" s="34"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <v>3</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <v>21</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="34">
         <v>10</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="29">
         <v>2</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="33">
         <v>1</v>
       </c>
-      <c r="U15" s="34"/>
-    </row>
-    <row r="16" s="22" customFormat="1" spans="1:20">
-      <c r="A16" s="22" t="s">
+      <c r="U15" s="33"/>
+    </row>
+    <row r="16" s="21" customFormat="1" spans="1:20">
+      <c r="A16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <f>SUMPRODUCT(H17:I18,P17:Q18)/SUM(P17:Q18)</f>
         <v>1.09347826086957</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <f>SUMPRODUCT(J17:J18,R17:R18)/SUM(R17:R18)</f>
         <v>0.997894736842105</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <f>SUMPRODUCT(K17:L18,S17:T18)/SUM(S17:T18)</f>
         <v>0.874905660377359</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <f>M18</f>
         <v>1.23</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>1.35</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>0.87</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>0.78</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <v>0.51</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="22" t="s">
+      <c r="L16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="30">
         <v>1</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>2</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="21">
         <v>74</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="30">
         <v>2</v>
       </c>
-      <c r="T16" s="36"/>
-    </row>
-    <row r="17" s="22" customFormat="1" spans="1:21">
-      <c r="A17" s="22" t="s">
+      <c r="T16" s="35"/>
+    </row>
+    <row r="17" s="21" customFormat="1" spans="1:21">
+      <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <f>J19</f>
         <v>1.27</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f>SUMPRODUCT(K19:L19,S19:T19)/SUM(S19:T19)</f>
         <v>0.8675</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f>M19</f>
         <v>1.46</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>1.26</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>0.74</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <v>1.14</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <v>0.73</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>1.25</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="33" t="s">
+      <c r="M17" s="32"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="28">
         <v>12</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="31">
         <v>2</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="32">
         <v>13</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="28">
         <v>35</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="31">
         <v>1</v>
       </c>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" s="22" customFormat="1" spans="4:21">
-      <c r="D18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" s="21" customFormat="1" spans="4:21">
+      <c r="D18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="21">
         <f>AVERAGE(B14:E17)</f>
         <v>1.03066943791987</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="34">
+      <c r="H18" s="29"/>
+      <c r="I18" s="33">
         <v>0.95</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <v>0.69</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <v>1.53</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="33">
         <v>1.07</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="34">
         <v>1.23</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="35" t="s">
+      <c r="N18" s="36"/>
+      <c r="O18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="34">
+      <c r="P18" s="29"/>
+      <c r="Q18" s="33">
         <v>9</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="34">
         <v>6</v>
       </c>
-      <c r="S18" s="30">
+      <c r="S18" s="29">
         <v>3</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18" s="33">
         <v>14</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" spans="4:21">
-      <c r="D19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="22">
+    <row r="19" s="21" customFormat="1" spans="4:21">
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21">
         <f>AVERAGE(B14,C15,D16,E17)</f>
         <v>1.10954833290256</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="22">
+      <c r="H19" s="29"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="21">
         <v>1.27</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>1.25</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="33">
         <v>0.74</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>1.46</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="22" t="s">
+      <c r="N19" s="36"/>
+      <c r="O19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="22">
+      <c r="P19" s="29"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="21">
         <v>2</v>
       </c>
-      <c r="S19" s="30">
+      <c r="S19" s="29">
         <v>1</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="33">
         <v>3</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="1" spans="1:21">
-      <c r="A22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="22" s="21" customFormat="1" spans="1:21">
+      <c r="A22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="29" t="s">
+      <c r="N22" s="36"/>
+      <c r="O22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T22" s="32" t="s">
+      <c r="T22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U22" s="22" t="s">
+      <c r="U22" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="1" spans="1:21">
-      <c r="A23" s="22" t="s">
+    <row r="23" s="21" customFormat="1" spans="1:21">
+      <c r="A23" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <f>SUMPRODUCT(H23:I24,P23:Q24)/SUM(P23:Q24)</f>
         <v>1.02315068493151</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <f>SUMPRODUCT(J23:J24,R23:R24)/SUM(R23:R24)</f>
         <v>0.81</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f>SUMPRODUCT(K23:L24,S23:T24)/SUM(S23:T24)</f>
         <v>0.896</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>1.16</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="31">
         <v>0.83</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <v>0.81</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>0.97</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="33" t="s">
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="28">
         <v>37</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="31">
         <v>12</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="32">
         <v>12</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="28">
         <v>2</v>
       </c>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-    </row>
-    <row r="24" s="22" customFormat="1" spans="1:21">
-      <c r="A24" s="22" t="s">
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" s="21" customFormat="1" spans="1:21">
+      <c r="A24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <f>SUMPRODUCT(H25:I25,P25:Q25)/SUM(P25:Q25)</f>
         <v>1.22666666666667</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <f>J25</f>
         <v>0.77</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <f>K25</f>
         <v>0.73</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <v>1.04</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>0.89</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>0.81</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>1</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="33">
         <v>0.54</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="35" t="s">
+      <c r="M24" s="34"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="29">
         <v>3</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="33">
         <v>21</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="34">
         <v>10</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24" s="29">
         <v>2</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="33">
         <v>1</v>
       </c>
-      <c r="U24" s="34"/>
-    </row>
-    <row r="25" s="22" customFormat="1" spans="1:20">
-      <c r="A25" s="22" t="s">
+      <c r="U24" s="33"/>
+    </row>
+    <row r="25" s="21" customFormat="1" spans="1:20">
+      <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <f>SUMPRODUCT(H26:I27,P26:Q27)/SUM(P26:Q27)</f>
         <v>1.07130434782609</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <f>SUMPRODUCT(J26:J27,R26:R27)/SUM(R26:R27)</f>
         <v>0.841578947368421</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <f>SUMPRODUCT(K26:L27,S26:T27)/SUM(S26:T27)</f>
         <v>0.854716981132075</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f>M27</f>
         <v>1.71</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <v>1.44</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>1.12</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>0.77</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="30">
         <v>0.73</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="22" t="s">
+      <c r="L25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="30">
         <v>1</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <v>2</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="21">
         <v>73</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="30">
         <v>2</v>
       </c>
-      <c r="T25" s="36"/>
-    </row>
-    <row r="26" s="22" customFormat="1" spans="1:21">
-      <c r="A26" s="22" t="s">
+      <c r="T25" s="35"/>
+    </row>
+    <row r="26" s="21" customFormat="1" spans="1:21">
+      <c r="A26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <f>J28</f>
         <v>1.34</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <f>SUMPRODUCT(K28:L28,S28:T28)/SUM(S28:T28)</f>
         <v>1.0875</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <f>M28</f>
         <v>1.13</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>1.09</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="31">
         <v>0.92</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="32">
         <v>0.93</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="28">
         <v>0.81</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="31">
         <v>0.54</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="33" t="s">
+      <c r="M26" s="32"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="28">
         <v>12</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="31">
         <v>2</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="32">
         <v>13</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="28">
         <v>35</v>
       </c>
-      <c r="T26" s="32">
+      <c r="T26" s="31">
         <v>1</v>
       </c>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" s="22" customFormat="1" spans="4:21">
-      <c r="D27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" s="21" customFormat="1" spans="4:21">
+      <c r="D27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="21">
         <f>AVERAGE(B23:E26)</f>
         <v>1.03776289445575</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="34">
+      <c r="H27" s="29"/>
+      <c r="I27" s="33">
         <v>1.08</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <v>0.65</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>0.85</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="33">
         <v>0.99</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="34">
         <v>1.71</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35" t="s">
+      <c r="N27" s="36"/>
+      <c r="O27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="34">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="33">
         <v>9</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="34">
         <v>6</v>
       </c>
-      <c r="S27" s="30">
+      <c r="S27" s="29">
         <v>3</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="33">
         <v>14</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="22" customFormat="1" spans="4:21">
-      <c r="D28" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="22">
+    <row r="28" s="21" customFormat="1" spans="4:21">
+      <c r="D28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="21">
         <f>AVERAGE(B23,C24,D25,E26)</f>
         <v>0.944466916515896</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="22">
+      <c r="H28" s="29"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="21">
         <v>1.34</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <v>1.38</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="33">
         <v>0.99</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>1.13</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="22" t="s">
+      <c r="N28" s="36"/>
+      <c r="O28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="22">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="21">
         <v>2</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S28" s="29">
         <v>1</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="33">
         <v>3</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="30" s="22" customFormat="1" spans="1:1">
-      <c r="A30" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" s="22" customFormat="1" spans="1:1">
-      <c r="A31" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" s="22" customFormat="1" ht="28" spans="1:3">
-      <c r="A32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="27" t="s">
+    <row r="30" s="21" customFormat="1" spans="1:1">
+      <c r="A30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="27" t="s">
+    </row>
+    <row r="31" s="21" customFormat="1" spans="1:1">
+      <c r="A31" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" s="22" customFormat="1" spans="1:3">
-      <c r="A33" s="22" t="s">
+    <row r="32" s="21" customFormat="1" ht="27.6" spans="1:3">
+      <c r="A32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="25">
+      <c r="C32" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" s="21" customFormat="1" spans="1:3">
+      <c r="A33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="24">
         <v>0.882208588957055</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>0.16441717791411</v>
       </c>
     </row>
-    <row r="34" s="22" customFormat="1" spans="1:3">
-      <c r="A34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="25">
+    <row r="34" s="21" customFormat="1" spans="1:3">
+      <c r="A34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="24">
         <v>0.825153374233129</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>0.307975460122699</v>
       </c>
     </row>
-    <row r="35" s="22" customFormat="1" spans="1:3">
-      <c r="A35" s="22" t="s">
+    <row r="35" s="21" customFormat="1" spans="1:3">
+      <c r="A35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0.679754601226993</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.453374233128834</v>
+      </c>
+    </row>
+    <row r="36" s="21" customFormat="1" spans="2:3">
+      <c r="B36" s="24">
+        <v>0.574846625766871</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.552760736196319</v>
+      </c>
+    </row>
+    <row r="37" s="21" customFormat="1" spans="2:3">
+      <c r="B37" s="24">
+        <v>0.539877300613496</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.670552147239263</v>
+      </c>
+    </row>
+    <row r="38" s="21" customFormat="1" spans="2:3">
+      <c r="B38" s="24">
+        <v>0.46441717791411</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.747852760736196</v>
+      </c>
+    </row>
+    <row r="39" s="21" customFormat="1" spans="2:3">
+      <c r="B39" s="24">
+        <v>0.414723926380368</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.821472392638036</v>
+      </c>
+    </row>
+    <row r="40" s="21" customFormat="1" spans="2:3">
+      <c r="B40" s="24">
+        <v>0.377914110429447</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.882208588957055</v>
+      </c>
+    </row>
+    <row r="41" s="21" customFormat="1" spans="2:3">
+      <c r="B41" s="24">
+        <v>0.339263803680981</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.928220858895705</v>
+      </c>
+    </row>
+    <row r="42" s="21" customFormat="1" spans="1:3">
+      <c r="A42" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.335582822085889</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.987116564417178</v>
+      </c>
+    </row>
+    <row r="43" s="21" customFormat="1" spans="2:3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" s="21" customFormat="1" spans="1:2">
+      <c r="A44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" s="21" customFormat="1" spans="1:1">
+      <c r="A45" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" s="21" customFormat="1" spans="1:9">
+      <c r="A46" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" s="21" customFormat="1" spans="1:9">
+      <c r="A47" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1</v>
+      </c>
+      <c r="C47" s="21">
+        <v>1</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="21">
+        <v>1</v>
+      </c>
+      <c r="I47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="21" customFormat="1" spans="1:9">
+      <c r="A48" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="21">
+        <v>1.12227074235807</v>
+      </c>
+      <c r="C48" s="21">
+        <v>3.47598253275108</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="21">
+        <v>0.971462998293</v>
+      </c>
+      <c r="I48" s="21">
+        <v>4.20471934933226</v>
+      </c>
+    </row>
+    <row r="49" s="21" customFormat="1" spans="1:9">
+      <c r="A49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="21">
+        <v>1.21397379912663</v>
+      </c>
+      <c r="C49" s="21">
+        <v>4.57641921397379</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="21">
+        <v>1.14125112963148</v>
+      </c>
+      <c r="I49" s="21">
+        <v>3.097314991465</v>
+      </c>
+    </row>
+    <row r="50" s="21" customFormat="1" spans="2:9">
+      <c r="B50" s="21">
+        <v>1.24454148471615</v>
+      </c>
+      <c r="C50" s="21">
+        <v>8.18340611353711</v>
+      </c>
+      <c r="H50" s="21">
+        <v>1.05232252234159</v>
+      </c>
+      <c r="I50" s="21">
+        <v>4.05925092880811</v>
+      </c>
+    </row>
+    <row r="51" s="21" customFormat="1" spans="2:9">
+      <c r="B51" s="21">
+        <v>1.03056768558951</v>
+      </c>
+      <c r="C51" s="21">
+        <v>9.28384279475982</v>
+      </c>
+      <c r="H51" s="21">
+        <v>1.15738929611406</v>
+      </c>
+      <c r="I51" s="21">
+        <v>5.60311677879305</v>
+      </c>
+    </row>
+    <row r="53" s="21" customFormat="1" spans="1:2">
+      <c r="A53" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" s="21" customFormat="1" spans="1:1">
+      <c r="A54" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" s="21" customFormat="1" spans="1:7">
+      <c r="A55" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" s="21" customFormat="1" spans="1:7">
+      <c r="A56" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="C56" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G56" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="57" s="21" customFormat="1" spans="1:7">
+      <c r="A57" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="C57" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="58" s="21" customFormat="1" spans="1:7">
+      <c r="A58" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="21">
+        <v>0.56</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.57</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1.12</v>
+      </c>
+      <c r="G58" s="21">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="63" s="21" customFormat="1" spans="1:1">
+      <c r="A63" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" s="21" customFormat="1" spans="1:1">
+      <c r="A64" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" s="21" customFormat="1" spans="1:9">
+      <c r="A66" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" s="21" customFormat="1" spans="1:9">
+      <c r="A67" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="25">
-        <v>0.679754601226993</v>
-      </c>
-      <c r="C35" s="25">
-        <v>0.453374233128834</v>
-      </c>
-    </row>
-    <row r="36" s="22" customFormat="1" spans="2:3">
-      <c r="B36" s="25">
-        <v>0.574846625766871</v>
-      </c>
-      <c r="C36" s="25">
-        <v>0.552760736196319</v>
-      </c>
-    </row>
-    <row r="37" s="22" customFormat="1" spans="2:3">
-      <c r="B37" s="25">
-        <v>0.539877300613496</v>
-      </c>
-      <c r="C37" s="25">
-        <v>0.670552147239263</v>
-      </c>
-    </row>
-    <row r="38" s="22" customFormat="1" spans="2:3">
-      <c r="B38" s="25">
-        <v>0.46441717791411</v>
-      </c>
-      <c r="C38" s="25">
-        <v>0.747852760736196</v>
-      </c>
-    </row>
-    <row r="39" s="22" customFormat="1" spans="2:3">
-      <c r="B39" s="25">
-        <v>0.414723926380368</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0.821472392638036</v>
-      </c>
-    </row>
-    <row r="40" s="22" customFormat="1" spans="2:3">
-      <c r="B40" s="25">
-        <v>0.377914110429447</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0.882208588957055</v>
-      </c>
-    </row>
-    <row r="41" s="22" customFormat="1" spans="2:3">
-      <c r="B41" s="25">
-        <v>0.339263803680981</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.928220858895705</v>
-      </c>
-    </row>
-    <row r="42" s="22" customFormat="1" spans="1:3">
-      <c r="A42" s="22" t="s">
+      <c r="B67" s="24">
+        <v>0.609504132231404</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.34090909090909</v>
+      </c>
+      <c r="D67" s="24">
+        <v>0.289256198347107</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0.464757709251101</v>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24">
+        <v>0.162995594713656</v>
+      </c>
+      <c r="H67" s="24">
+        <v>0.100896860986547</v>
+      </c>
+      <c r="I67" s="24">
+        <v>0.334080717488789</v>
+      </c>
+    </row>
+    <row r="68" s="21" customFormat="1" spans="1:9">
+      <c r="A68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="25">
-        <v>0.335582822085889</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0.987116564417178</v>
-      </c>
-    </row>
-    <row r="43" s="22" customFormat="1" ht="14.5" spans="2:3">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-    </row>
-    <row r="44" s="22" customFormat="1" spans="1:2">
-      <c r="A44" s="22" t="s">
+      <c r="B68" s="24">
+        <v>0.836776859504132</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0.700413223140495</v>
+      </c>
+      <c r="D68" s="24">
+        <v>0.683884297520661</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.702643171806167</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24">
+        <v>0.337004405286343</v>
+      </c>
+      <c r="H68" s="24">
+        <v>0.208520179372197</v>
+      </c>
+      <c r="I68" s="24">
+        <v>0.551569506726457</v>
+      </c>
+    </row>
+    <row r="69" s="21" customFormat="1" spans="1:9">
+      <c r="A69" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B69" s="24">
+        <v>0.81198347107438</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.832644628099173</v>
+      </c>
+      <c r="D69" s="24">
+        <v>0.969008264462809</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.74669603524229</v>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24">
+        <v>0.522026431718061</v>
+      </c>
+      <c r="H69" s="24">
+        <v>0.340807174887892</v>
+      </c>
+      <c r="I69" s="24">
+        <v>0.679372197309417</v>
+      </c>
+    </row>
+    <row r="70" s="21" customFormat="1" spans="2:9">
+      <c r="B70" s="24">
+        <v>0.789256198347107</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0.942148760330578</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.788546255506608</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24">
+        <v>0.685022026431718</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0.470852017937219</v>
+      </c>
+      <c r="I70" s="24">
+        <v>0.692825112107623</v>
+      </c>
+    </row>
+    <row r="71" s="21" customFormat="1" spans="2:9">
+      <c r="B71" s="24">
+        <v>0.84090909090909</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.890495867768595</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0.84297520661157</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.874449339207048</v>
+      </c>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24">
+        <v>0.865638766519823</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0.612107623318385</v>
+      </c>
+      <c r="I71" s="24">
+        <v>0.798206278026905</v>
+      </c>
+    </row>
+    <row r="72" s="21" customFormat="1" spans="2:9">
+      <c r="B72" s="24">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0.869834710743801</v>
+      </c>
+      <c r="D72" s="24">
+        <v>0.743801652892562</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0.854625550660792</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24">
+        <v>0.929515418502202</v>
+      </c>
+      <c r="H72" s="24">
+        <v>0.724215246636771</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0.789237668161435</v>
+      </c>
+    </row>
+    <row r="73" s="21" customFormat="1" spans="2:9">
+      <c r="B73" s="24">
+        <v>0.902892561983471</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.838842975206611</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0.683884297520661</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.839207048458149</v>
+      </c>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24">
+        <v>0.929515418502202</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0.820627802690583</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0.827354260089686</v>
+      </c>
+    </row>
+    <row r="74" s="21" customFormat="1" spans="2:9">
+      <c r="B74" s="24">
+        <v>0.754132231404958</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0.900826446280991</v>
+      </c>
+      <c r="D74" s="24">
+        <v>0.646694214876033</v>
+      </c>
+      <c r="E74" s="24">
+        <v>0.68942731277533</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24">
+        <v>0.940528634361233</v>
+      </c>
+      <c r="H74" s="24">
+        <v>0.914798206278027</v>
+      </c>
+      <c r="I74" s="24">
+        <v>0.874439461883408</v>
+      </c>
+    </row>
+    <row r="75" s="21" customFormat="1" spans="2:9">
+      <c r="B75" s="24">
+        <v>0.789256198347107</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0.87190082644628</v>
+      </c>
+      <c r="D75" s="24">
+        <v>0.597107438016528</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.667400881057268</v>
+      </c>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24">
+        <v>0.881057268722466</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0.970852017937219</v>
+      </c>
+      <c r="I75" s="24">
+        <v>0.970852017937219</v>
+      </c>
+    </row>
+    <row r="76" s="21" customFormat="1" spans="1:9">
+      <c r="A76" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" s="22" customFormat="1" spans="1:1">
-      <c r="A45" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" s="22" customFormat="1" spans="1:9">
-      <c r="A46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" s="22" customFormat="1" spans="1:9">
-      <c r="A47" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="22">
-        <v>1</v>
-      </c>
-      <c r="C47" s="22">
-        <v>1</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" s="22">
-        <v>1</v>
-      </c>
-      <c r="I47" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" s="22" customFormat="1" spans="1:9">
-      <c r="A48" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="22">
-        <v>1.12227074235807</v>
-      </c>
-      <c r="C48" s="22">
-        <v>3.47598253275108</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="22">
-        <v>0.971462998293</v>
-      </c>
-      <c r="I48" s="22">
-        <v>4.20471934933226</v>
-      </c>
-    </row>
-    <row r="49" s="22" customFormat="1" spans="1:9">
-      <c r="A49" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="22">
-        <v>1.21397379912663</v>
-      </c>
-      <c r="C49" s="22">
-        <v>4.57641921397379</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="22">
-        <v>1.14125112963148</v>
-      </c>
-      <c r="I49" s="22">
-        <v>3.097314991465</v>
-      </c>
-    </row>
-    <row r="50" s="22" customFormat="1" spans="2:9">
-      <c r="B50" s="22">
-        <v>1.24454148471615</v>
-      </c>
-      <c r="C50" s="22">
-        <v>8.18340611353711</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22">
-        <v>1.05232252234159</v>
-      </c>
-      <c r="I50" s="22">
-        <v>4.05925092880811</v>
-      </c>
-    </row>
-    <row r="51" s="22" customFormat="1" spans="2:9">
-      <c r="B51" s="22">
-        <v>1.03056768558951</v>
-      </c>
-      <c r="C51" s="22">
-        <v>9.28384279475982</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22">
-        <v>1.15738929611406</v>
-      </c>
-      <c r="I51" s="22">
-        <v>5.60311677879305</v>
-      </c>
-    </row>
-    <row r="53" s="22" customFormat="1" spans="1:2">
-      <c r="A53" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" s="22" customFormat="1" spans="1:1">
-      <c r="A54" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" s="22" customFormat="1" spans="1:7">
-      <c r="A55" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" s="22" customFormat="1" spans="1:7">
-      <c r="A56" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="25">
-        <v>0.64</v>
-      </c>
-      <c r="C56" s="22">
-        <v>0.72</v>
-      </c>
-      <c r="D56" s="22">
-        <v>0.73</v>
-      </c>
-      <c r="E56" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="57" s="22" customFormat="1" spans="1:7">
-      <c r="A57" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="25">
-        <v>0.35</v>
-      </c>
-      <c r="C57" s="22">
-        <v>0.39</v>
-      </c>
-      <c r="D57" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="E57" s="25">
-        <v>0.91</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="58" s="22" customFormat="1" spans="1:7">
-      <c r="A58" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="22">
-        <v>0.56</v>
-      </c>
-      <c r="C58" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="D58" s="22">
-        <v>0.57</v>
-      </c>
-      <c r="E58" s="22">
-        <v>1.12</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="63" s="22" customFormat="1" spans="1:1">
-      <c r="A63" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" s="22" customFormat="1" spans="1:1">
-      <c r="A64" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" s="22" customFormat="1" spans="1:9">
-      <c r="A66" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" s="22" customFormat="1" spans="1:9">
-      <c r="A67" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="25">
-        <v>0.609504132231404</v>
-      </c>
-      <c r="C67" s="25">
-        <v>0.34090909090909</v>
-      </c>
-      <c r="D67" s="25">
-        <v>0.289256198347107</v>
-      </c>
-      <c r="E67" s="25">
-        <v>0.464757709251101</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25">
-        <v>0.162995594713656</v>
-      </c>
-      <c r="H67" s="25">
-        <v>0.100896860986547</v>
-      </c>
-      <c r="I67" s="25">
-        <v>0.334080717488789</v>
-      </c>
-    </row>
-    <row r="68" s="22" customFormat="1" spans="1:9">
-      <c r="A68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="25">
-        <v>0.836776859504132</v>
-      </c>
-      <c r="C68" s="25">
+      <c r="B76" s="24">
+        <v>0.706611570247933</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0.849173553719008</v>
+      </c>
+      <c r="D76" s="24">
         <v>0.700413223140495</v>
       </c>
-      <c r="D68" s="25">
-        <v>0.683884297520661</v>
-      </c>
-      <c r="E68" s="25">
-        <v>0.702643171806167</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25">
-        <v>0.337004405286343</v>
-      </c>
-      <c r="H68" s="25">
-        <v>0.208520179372197</v>
-      </c>
-      <c r="I68" s="25">
-        <v>0.551569506726457</v>
-      </c>
-    </row>
-    <row r="69" s="22" customFormat="1" spans="1:9">
-      <c r="A69" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="25">
-        <v>0.81198347107438</v>
-      </c>
-      <c r="C69" s="25">
-        <v>0.832644628099173</v>
-      </c>
-      <c r="D69" s="25">
-        <v>0.969008264462809</v>
-      </c>
-      <c r="E69" s="25">
-        <v>0.74669603524229</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25">
-        <v>0.522026431718061</v>
-      </c>
-      <c r="H69" s="25">
-        <v>0.340807174887892</v>
-      </c>
-      <c r="I69" s="25">
-        <v>0.679372197309417</v>
-      </c>
-    </row>
-    <row r="70" s="22" customFormat="1" spans="2:9">
-      <c r="B70" s="25">
-        <v>0.789256198347107</v>
-      </c>
-      <c r="C70" s="25">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="D70" s="25">
-        <v>0.942148760330578</v>
-      </c>
-      <c r="E70" s="25">
-        <v>0.788546255506608</v>
-      </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25">
-        <v>0.685022026431718</v>
-      </c>
-      <c r="H70" s="25">
-        <v>0.470852017937219</v>
-      </c>
-      <c r="I70" s="25">
-        <v>0.692825112107623</v>
-      </c>
-    </row>
-    <row r="71" s="22" customFormat="1" spans="2:9">
-      <c r="B71" s="25">
-        <v>0.84090909090909</v>
-      </c>
-      <c r="C71" s="25">
-        <v>0.890495867768595</v>
-      </c>
-      <c r="D71" s="25">
-        <v>0.84297520661157</v>
-      </c>
-      <c r="E71" s="25">
-        <v>0.874449339207048</v>
-      </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25">
-        <v>0.865638766519823</v>
-      </c>
-      <c r="H71" s="25">
-        <v>0.612107623318385</v>
-      </c>
-      <c r="I71" s="25">
-        <v>0.798206278026905</v>
-      </c>
-    </row>
-    <row r="72" s="22" customFormat="1" spans="2:9">
-      <c r="B72" s="25">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="C72" s="25">
-        <v>0.869834710743801</v>
-      </c>
-      <c r="D72" s="25">
-        <v>0.743801652892562</v>
-      </c>
-      <c r="E72" s="25">
-        <v>0.854625550660792</v>
-      </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25">
-        <v>0.929515418502202</v>
-      </c>
-      <c r="H72" s="25">
-        <v>0.724215246636771</v>
-      </c>
-      <c r="I72" s="25">
-        <v>0.789237668161435</v>
-      </c>
-    </row>
-    <row r="73" s="22" customFormat="1" spans="2:9">
-      <c r="B73" s="25">
-        <v>0.902892561983471</v>
-      </c>
-      <c r="C73" s="25">
-        <v>0.838842975206611</v>
-      </c>
-      <c r="D73" s="25">
-        <v>0.683884297520661</v>
-      </c>
-      <c r="E73" s="25">
-        <v>0.839207048458149</v>
-      </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25">
-        <v>0.929515418502202</v>
-      </c>
-      <c r="H73" s="25">
-        <v>0.820627802690583</v>
-      </c>
-      <c r="I73" s="25">
-        <v>0.827354260089686</v>
-      </c>
-    </row>
-    <row r="74" s="22" customFormat="1" spans="2:9">
-      <c r="B74" s="25">
-        <v>0.754132231404958</v>
-      </c>
-      <c r="C74" s="25">
-        <v>0.900826446280991</v>
-      </c>
-      <c r="D74" s="25">
-        <v>0.646694214876033</v>
-      </c>
-      <c r="E74" s="25">
-        <v>0.68942731277533</v>
-      </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25">
-        <v>0.940528634361233</v>
-      </c>
-      <c r="H74" s="25">
-        <v>0.914798206278027</v>
-      </c>
-      <c r="I74" s="25">
-        <v>0.874439461883408</v>
-      </c>
-    </row>
-    <row r="75" s="22" customFormat="1" spans="2:9">
-      <c r="B75" s="25">
-        <v>0.789256198347107</v>
-      </c>
-      <c r="C75" s="25">
-        <v>0.87190082644628</v>
-      </c>
-      <c r="D75" s="25">
-        <v>0.597107438016528</v>
-      </c>
-      <c r="E75" s="25">
-        <v>0.667400881057268</v>
-      </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25">
-        <v>0.881057268722466</v>
-      </c>
-      <c r="H75" s="25">
-        <v>0.970852017937219</v>
-      </c>
-      <c r="I75" s="25">
-        <v>0.970852017937219</v>
-      </c>
-    </row>
-    <row r="76" s="22" customFormat="1" spans="1:9">
-      <c r="A76" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="25">
-        <v>0.706611570247933</v>
-      </c>
-      <c r="C76" s="25">
-        <v>0.849173553719008</v>
-      </c>
-      <c r="D76" s="25">
-        <v>0.700413223140495</v>
-      </c>
-      <c r="E76" s="25">
+      <c r="E76" s="24">
         <v>0.605726872246696</v>
       </c>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25">
+      <c r="F76" s="24"/>
+      <c r="G76" s="24">
         <v>0.748898678414097</v>
       </c>
-      <c r="H76" s="25">
+      <c r="H76" s="24">
         <v>0.977578475336323</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I76" s="24">
         <v>0.977578475336323</v>
       </c>
     </row>
-    <row r="77" s="22" customFormat="1" spans="1:9">
-      <c r="A77" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="22">
+    <row r="77" s="21" customFormat="1" spans="1:9">
+      <c r="A77" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="21">
         <v>0.390495867768595</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="21">
         <v>0.328512396694214</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <v>0.225206611570247</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="21">
         <v>0.45374449339207</v>
       </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22">
+      <c r="G77" s="21">
         <v>0.178414096916299</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="21">
         <v>0.179372197309417</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="21">
         <v>0.376681614349775</v>
       </c>
     </row>
-    <row r="81" s="22" customFormat="1" spans="2:5">
-      <c r="B81" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81" s="22" t="s">
+    <row r="81" s="21" customFormat="1" spans="2:5">
+      <c r="B81" s="21" t="s">
         <v>84</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5520,335 +5527,290 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.9333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.55" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.3833333333333" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.9083333333333" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.4666666666667" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="21.4916666666667" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.2416666666667" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="7.79166666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.9333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.55" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.3833333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.9083333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.4666666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.4916666666667" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.2416666666667" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="7.79166666666667" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="12" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:7">
+      <c r="A1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="72.5" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+    </row>
+    <row r="2" s="12" customFormat="1" ht="69" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" s="13" customFormat="1" ht="72.5" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+    </row>
+    <row r="3" s="12" customFormat="1" ht="69" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" s="13" customFormat="1" ht="130.5" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="13">
+      <c r="D3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="124.2" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="12">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" s="13" customFormat="1" ht="87" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="13">
+      <c r="G4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="82.8" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="12">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" s="13" customFormat="1" ht="58" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+    </row>
+    <row r="6" s="12" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A6" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" s="13" customFormat="1" ht="72.5" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="13">
+      <c r="G6" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="69" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="12">
         <v>4.6</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>2.5</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" s="13" customFormat="1" ht="58" spans="1:7">
-      <c r="A8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+    </row>
+    <row r="8" s="12" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A8" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" s="13" customFormat="1" ht="58" spans="1:7">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="1" ht="72.5" spans="1:9">
-      <c r="A10" s="14" t="s">
+    <row r="9" s="12" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="14" t="s">
+    </row>
+    <row r="10" s="12" customFormat="1" ht="69" spans="1:9">
+      <c r="A10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" s="13" customFormat="1" ht="72.5" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="13">
+      <c r="E10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="69" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="12">
         <v>32</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" s="13" customFormat="1" ht="72.5" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+    </row>
+    <row r="12" s="12" customFormat="1" ht="69" spans="1:7">
+      <c r="A12" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" s="13" customFormat="1" ht="58" spans="1:7">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="14" t="s">
+    </row>
+    <row r="13" s="12" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A13" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" s="13" customFormat="1" ht="87" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="18">
+      <c r="F13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="82.8" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="17">
         <v>32</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" s="13" customFormat="1" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" s="13" customFormat="1" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" s="13" customFormat="1" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" s="13" customFormat="1" spans="1:1">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" s="13" customFormat="1" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" s="13" customFormat="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" s="13" customFormat="1" spans="1:1">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" s="13" customFormat="1" spans="1:1">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" s="13" customFormat="1" spans="1:1">
-      <c r="A24" s="14"/>
-    </row>
-    <row r="25" s="13" customFormat="1" spans="1:1">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" s="13" customFormat="1" spans="1:1">
-      <c r="A26" s="14"/>
-    </row>
-    <row r="27" s="13" customFormat="1" spans="1:1">
-      <c r="A27" s="14"/>
-    </row>
-    <row r="28" s="13" customFormat="1" spans="1:1">
-      <c r="A28" s="14"/>
-    </row>
-    <row r="29" s="13" customFormat="1" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:3">
+      <c r="A17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:3">
+      <c r="A18" s="13"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" s="12" customFormat="1" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" s="12" customFormat="1" spans="1:3">
+      <c r="A20" s="13"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" s="12" customFormat="1" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" s="12" customFormat="1" spans="1:1">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" s="12" customFormat="1" spans="1:1">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" s="12" customFormat="1" spans="1:1">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" s="12" customFormat="1" spans="1:1">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" s="12" customFormat="1" spans="1:1">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" s="12" customFormat="1" spans="1:1">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" s="12" customFormat="1" spans="1:1">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" s="12" customFormat="1" spans="1:8">
+      <c r="A29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5869,7 +5831,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.15833333333333" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.15833333333333" defaultRowHeight="12.6" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="16.3166666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.15833333333333" style="1"/>
@@ -5877,164 +5839,160 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6">
         <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A3" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
+      <c r="B4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>158</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
         <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A6" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>152</v>
+        <v>165</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="C7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>200</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="G7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>200</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>166</v>
+      <c r="F8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/exp-data-syn.xlsx
+++ b/exp-data-syn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21432" windowHeight="10476" activeTab="1"/>
+    <workbookView windowWidth="21432" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="epsp" sheetId="5" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="181">
   <si>
     <t xml:space="preserve">Lefort et al., 2009, The Excitatory Neuronal Network of the C2 Barrel Column in Mouse Primary Somatosensory Cortex
 </t>
@@ -182,6 +182,35 @@
   </si>
   <si>
     <t>VIP</t>
+  </si>
+  <si>
+    <t>(1) 0.43
+(4) 0.31</t>
+  </si>
+  <si>
+    <t>(3) 2.7
+(4) 0.33</t>
+  </si>
+  <si>
+    <t>(3) 1.04
+(4) 0.41</t>
+  </si>
+  <si>
+    <t>(2) 0.53
+(4) 1.14</t>
+  </si>
+  <si>
+    <t>(3) 1.79</t>
+  </si>
+  <si>
+    <t>(3) 1.38</t>
+  </si>
+  <si>
+    <t>(2) 0.5
+(4) 0.55</t>
+  </si>
+  <si>
+    <t>(3) 1.82</t>
   </si>
   <si>
     <t>PSP amp. sd</t>
@@ -202,6 +231,9 @@
     <t xml:space="preserve">3. Short-Term Plasticity of Unitary Inhibitory-to-Inhibitory
 Synapses Depends on the Presynaptic Interneuron Subtype
 </t>
+  </si>
+  <si>
+    <t>4. Single synaptic inputs drive high-precision action potentials in parvalbumin expressing GABA-ergic cortical neurons in vivo</t>
   </si>
   <si>
     <t xml:space="preserve">Layer-Dependent Short-Term Synaptic Plasticity Between Excitatory Neurons in the C2 Barrel Column of Mouse Primary Somatosensory Cortex </t>
@@ -719,10 +751,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -888,14 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,6 +931,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,6 +958,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -934,10 +988,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,14 +1011,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,32 +1041,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,7 +1097,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,151 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,6 +1175,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1246,6 +1188,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,11 +1490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1478,21 +1516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,6 +1537,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1523,11 +1557,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,106 +1568,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,31 +1679,31 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1681,7 +1713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1762,7 +1794,12 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2125,1210 +2162,1210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" s="51" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="52" t="s">
+    <row r="1" s="52" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="51" customFormat="1" ht="13.2" spans="1:1">
-      <c r="A2" s="54" t="s">
+    <row r="2" s="52" customFormat="1" ht="13.2" spans="1:1">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="51" customFormat="1" ht="13.2" spans="1:5">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55" t="s">
+    <row r="3" s="52" customFormat="1" ht="13.2" spans="1:5">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A4" s="55" t="s">
+    <row r="4" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="57">
         <f>(SUMPRODUCT(B18:C19,B34:C35)/SUM(B34:C35))</f>
         <v>0.700092592592593</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="57">
         <f>(SUMPRODUCT(D18:D19,D34:D35)/SUM(D34:D35))</f>
         <v>0.78</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="57">
         <f>(SUMPRODUCT(E18:F19,E34:F35)/SUM(E34:F35))</f>
         <v>0.467333333333333</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="58">
         <f>AVERAGE(E6:E7)</f>
         <v>0.378333333333333</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-    </row>
-    <row r="5" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A5" s="55" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+    </row>
+    <row r="5" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="57">
         <f>SUMPRODUCT(B20:C20,B36:C36)/SUM(B36:C36)</f>
         <v>0.343333333333333</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="57">
         <f>D20</f>
         <v>0.95</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="57">
         <f>SUMPRODUCT(E20:F20,E36:F36)/SUM(E36:F36)</f>
         <v>0.376666666666667</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="58">
         <f>AVERAGE(E6:E7)</f>
         <v>0.378333333333333</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-    </row>
-    <row r="6" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A6" s="55" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+    </row>
+    <row r="6" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="57">
         <f>SUMPRODUCT(B21:C22,B37:C38)/SUM(B37:C38)</f>
         <v>0.700555555555555</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="57">
         <f>SUMPRODUCT(D21:D22,D37:D38)/SUM(D37:D38)</f>
         <v>0.626976744186047</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="57">
         <f>(SUMPRODUCT(E21:F22,E37:F38)/SUM(E37:F38))</f>
         <v>0.676255319148936</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="57">
         <f>(SUMPRODUCT(G21:G22,G37:G38)/SUM(G37:G38))</f>
         <v>0.226666666666667</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-    </row>
-    <row r="7" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A7" s="55" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+    </row>
+    <row r="7" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="58">
         <f>AVERAGE(B4:B6)</f>
         <v>0.581327160493827</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="57">
         <f>D23</f>
         <v>2.27</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="57">
         <f>(SUMPRODUCT(E23:F23,E39:F39)/SUM(E39:F39))</f>
         <v>0.4025</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="57">
         <f>G23</f>
         <v>0.53</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="69">
         <f>AVERAGE(B4:D6,E6,C7:E7)</f>
         <v>0.69618309319101</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-    </row>
-    <row r="8" s="51" customFormat="1" ht="13.2" spans="2:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A9" s="59" t="s">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+    </row>
+    <row r="8" s="52" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" s="51" customFormat="1" ht="13.2" spans="2:12">
-      <c r="B10" s="51" t="s">
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" s="52" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="68"/>
-    </row>
-    <row r="11" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A11" s="51" t="s">
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="59">
         <f>SQRT(SUMPRODUCT(B26:C27,B42:C43)/SUM(B42:C43))</f>
         <v>0.627113784024245</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="59">
         <f>SQRT(SUMPRODUCT(D26:D27,D42:D43)/SUM(D42:D43))</f>
         <v>0.965012953280939</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="59">
         <f>SQRT((E26*E42+F27*F43)/(E42+F43))</f>
         <v>0.354288018425687</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="59">
         <v>0</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="69">
         <f t="shared" ref="G11:G13" si="0">B11/B4</f>
         <v>0.895758347766413</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="69">
         <f t="shared" ref="H11:H14" si="1">C11/C4</f>
         <v>1.23719609394992</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="69">
         <f t="shared" ref="I11:I14" si="2">D11/D4</f>
         <v>0.758105602908032</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="70">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L11" s="68"/>
-    </row>
-    <row r="12" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A12" s="51" t="s">
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="59">
         <f>SQRT(C28)</f>
         <v>0.18</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="59">
         <f>SQRT(D28)</f>
         <v>1.27499019604074</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="59">
         <v>0</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="59">
         <v>0</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="69">
         <f t="shared" si="0"/>
         <v>0.524271844660194</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="69">
         <f t="shared" si="1"/>
         <v>1.34209494320078</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="70">
         <f>AVERAGE(I11,I13,I14)</f>
         <v>0.956619127770427</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="70">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L12" s="68"/>
-    </row>
-    <row r="13" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A13" s="51" t="s">
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="59">
         <f>SQRT(SUMPRODUCT(B29:C30,B45:C46)/SUM(B45:C46))</f>
         <v>0.736955900987298</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="59">
         <f>SQRT(SUMPRODUCT(D29:D30,D45:D46)/SUM(D45:D46))</f>
         <v>0.603045118240871</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="59">
         <f>(SUMPRODUCT(E29:F30,E45:F46)/SUM(E45:F46))</f>
         <v>0.837114285714286</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="59">
         <v>0</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="69">
         <f t="shared" si="0"/>
         <v>1.05195925596918</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="69">
         <f t="shared" si="1"/>
         <v>0.961830121823348</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="69">
         <f t="shared" si="2"/>
         <v>1.23786721081586</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="70">
         <f>J14</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A14" s="51" t="s">
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="59">
         <v>0</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="59">
         <f>SQRT(D31)</f>
         <v>2.97912738901847</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="59">
         <f>SQRT(SUMPRODUCT(E31:F31,E47:F47)/SUM(E47:F47))</f>
         <v>0.351738539258922</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="59">
         <f>SQRT(G31)</f>
         <v>0.735866835779409</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="52">
         <f>AVERAGEIF(B11:E14,"&gt;0")</f>
         <v>0.876841183706442</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="70">
         <f>AVERAGE(G11:G13)</f>
         <v>0.823996482798596</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="69">
         <f t="shared" si="1"/>
         <v>1.31239092027245</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="69">
         <f t="shared" si="2"/>
         <v>0.873884569587383</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="69">
         <f>E14/E7</f>
         <v>1.38842799203662</v>
       </c>
-      <c r="L14" s="68"/>
-    </row>
-    <row r="15" s="51" customFormat="1" ht="13.2" spans="2:12">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="L15" s="68"/>
-    </row>
-    <row r="16" s="51" customFormat="1" ht="13.2" spans="1:12">
-      <c r="A16" s="51" t="s">
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" s="52" customFormat="1" ht="13.2" spans="2:12">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" s="52" customFormat="1" ht="13.2" spans="1:12">
+      <c r="A16" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A17" s="59" t="s">
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A18" s="51" t="s">
+    <row r="18" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="52">
         <v>0.64</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="52">
         <v>0.71</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="52">
         <v>0.98</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="52">
         <v>0.52</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="52">
         <v>0.21</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A19" s="51" t="s">
+    <row r="19" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A19" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="52">
         <v>0.44</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="52">
         <v>0.78</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="52">
         <v>0.58</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="52">
         <v>0.67</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="52">
         <v>0.26</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A20" s="51" t="s">
+    <row r="20" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="52">
         <v>0.31</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="52">
         <v>0.36</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="52">
         <v>0.95</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="52">
         <v>0.48</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="52">
         <v>0.17</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A21" s="51" t="s">
+    <row r="21" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A21" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="52">
         <v>0.55</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="52">
         <v>0.93</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="52">
         <v>0.54</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="52">
         <v>0.66</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="52">
         <v>0.24</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="52">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A22" s="51" t="s">
+    <row r="22" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A22" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="52">
         <v>0.22</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="52">
         <v>1.01</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="52">
         <v>0.88</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="52">
         <v>0.88</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="52">
         <v>0.71</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="52">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A23" s="51" t="s">
+    <row r="23" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A23" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="52">
         <v>0</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="52">
         <v>0</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="52">
         <v>2.27</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="52">
         <v>0.28</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="52">
         <v>0.49</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="52">
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" s="51" customFormat="1" ht="13.2"/>
-    <row r="25" s="51" customFormat="1" ht="13.2" spans="1:9">
-      <c r="A25" s="59" t="s">
+    <row r="24" s="52" customFormat="1" ht="13.2"/>
+    <row r="25" s="52" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A26" s="51" t="s">
+    <row r="26" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A26" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="52">
         <f t="shared" ref="B26:G26" si="3">(I26^2)*B34</f>
         <v>0.3168</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="52">
         <f t="shared" si="3"/>
         <v>0.495</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="52">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="52">
         <f t="shared" si="3"/>
         <v>0.1521</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="52">
         <v>0.06</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="52">
         <v>0.15</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="52">
         <v>0.24</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="52">
         <v>0.13</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="52">
         <v>0</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A27" s="51" t="s">
+    <row r="27" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A27" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="52">
         <f t="shared" ref="B27:G27" si="4">(I27^2)*B35</f>
         <v>0.081</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="52">
         <f t="shared" si="4"/>
         <v>0.4704</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="52">
         <f t="shared" si="4"/>
         <v>0.4225</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="52">
         <f t="shared" si="4"/>
         <v>0.0192</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="52">
         <v>0.09</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="52">
         <v>0.07</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="52">
         <v>0.13</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="52">
         <v>0</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="52">
         <v>0.08</v>
       </c>
-      <c r="N27" s="51">
+      <c r="N27" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A28" s="51" t="s">
+    <row r="28" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A28" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="52">
         <f t="shared" ref="B28:G28" si="5">(I28^2)*B36</f>
         <v>0</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="52">
         <f t="shared" si="5"/>
         <v>0.0324</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="52">
         <f t="shared" si="5"/>
         <v>1.6256</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="52">
         <v>0</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="52">
         <v>0.09</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="52">
         <v>0.08</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="52">
         <v>0</v>
       </c>
-      <c r="M28" s="51">
+      <c r="M28" s="52">
         <v>0</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A29" s="51" t="s">
+    <row r="29" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A29" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="52">
         <f t="shared" ref="B29:G29" si="6">(I29^2)*B37</f>
         <v>0.2</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="52">
         <f t="shared" si="6"/>
         <v>0.338</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="52">
         <f t="shared" si="6"/>
         <v>0.2592</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="52">
         <f t="shared" si="6"/>
         <v>0.6408</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="52">
         <f t="shared" si="6"/>
         <v>0.0243</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="52">
         <v>0.1</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="52">
         <v>0.26</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="52">
         <v>0.09</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="52">
         <v>0.06</v>
       </c>
-      <c r="M29" s="51">
+      <c r="M29" s="52">
         <v>0.09</v>
       </c>
-      <c r="N29" s="51">
+      <c r="N29" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A30" s="51" t="s">
+    <row r="30" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="52">
         <f t="shared" ref="B30:G30" si="7">(I30^2)*B38</f>
         <v>0.0144</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="52">
         <f t="shared" si="7"/>
         <v>1.152</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="52">
         <f t="shared" si="7"/>
         <v>0.6875</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="52">
         <f t="shared" si="7"/>
         <v>1.8144</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="52">
         <f t="shared" si="7"/>
         <v>1.444</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="52">
         <v>0.04</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="52">
         <v>0.24</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="52">
         <v>0.25</v>
       </c>
-      <c r="L30" s="51">
+      <c r="L30" s="52">
         <v>0.36</v>
       </c>
-      <c r="M30" s="51">
+      <c r="M30" s="52">
         <v>0.19</v>
       </c>
-      <c r="N30" s="51">
+      <c r="N30" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="51" customFormat="1" ht="13.2" spans="1:14">
-      <c r="A31" s="51" t="s">
+    <row r="31" s="52" customFormat="1" ht="13.2" spans="1:14">
+      <c r="A31" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="52">
         <f t="shared" ref="B31:G31" si="8">(I31^2)*B39</f>
         <v>0</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="52">
         <f t="shared" si="8"/>
         <v>8.8752</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="52">
         <f t="shared" si="8"/>
         <v>0.0405</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="52">
         <f t="shared" si="8"/>
         <v>0.1792</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="52">
         <f t="shared" si="8"/>
         <v>0.5415</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="52">
         <v>0</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="52">
         <v>0</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="52">
         <v>1.72</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="52">
         <v>0.09</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="52">
         <v>0.16</v>
       </c>
-      <c r="N31" s="51">
+      <c r="N31" s="52">
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" s="51" customFormat="1" ht="13.95"/>
-    <row r="33" s="51" customFormat="1" ht="13.95" spans="1:7">
-      <c r="A33" s="59" t="s">
+    <row r="32" s="52" customFormat="1" ht="13.95"/>
+    <row r="33" s="52" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A34" s="60" t="s">
+    <row r="34" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A34" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="61">
         <v>88</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="62">
         <v>22</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="63">
         <v>25</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="61">
         <v>9</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="62">
         <v>1</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="51" customFormat="1" ht="13.95" spans="1:7">
-      <c r="A35" s="63" t="s">
+    <row r="35" s="52" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A35" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="64">
         <v>10</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="65">
         <v>96</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="66">
         <v>25</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="64">
         <v>2</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="65">
         <v>3</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="65">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="51" customFormat="1" ht="13.95" spans="1:7">
-      <c r="A36" s="51" t="s">
+    <row r="36" s="52" customFormat="1" ht="13.95" spans="1:7">
+      <c r="A36" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="67">
         <v>2</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="68">
         <v>4</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="52">
         <v>254</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="67">
         <v>2</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="68">
         <v>1</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A37" s="60" t="s">
+    <row r="37" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A37" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="61">
         <v>20</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="62">
         <v>5</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="63">
         <v>32</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="61">
         <v>178</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="62">
         <v>3</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="62">
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="51" customFormat="1" ht="13.95" spans="1:8">
-      <c r="A38" s="63" t="s">
+    <row r="38" s="52" customFormat="1" ht="13.95" spans="1:8">
+      <c r="A38" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="64">
         <v>9</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="65">
         <v>20</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="66">
         <v>11</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="64">
         <v>14</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="65">
         <v>40</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="65">
         <v>2</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" s="51" customFormat="1" ht="13.95" spans="1:8">
-      <c r="A39" s="51" t="s">
+    <row r="39" s="52" customFormat="1" ht="13.95" spans="1:8">
+      <c r="A39" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="64">
         <v>0</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="65">
         <v>0</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="52">
         <v>3</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="64">
         <v>5</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="65">
         <v>7</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="52">
         <v>15</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="69">
         <f>(SUMPRODUCT(B18:G23,B34:G39))/SUM(B34:G39)</f>
         <v>0.754345434543454</v>
       </c>
     </row>
-    <row r="40" s="51" customFormat="1" ht="13.2"/>
-    <row r="41" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A41" s="59" t="s">
+    <row r="40" s="52" customFormat="1" ht="13.2"/>
+    <row r="41" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A41" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A42" s="51" t="s">
+    <row r="42" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A42" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="52">
         <f t="shared" ref="B42:G42" si="9">B34-1</f>
         <v>87</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="52">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="52">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="52">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="52">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="52">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A43" s="51" t="s">
+    <row r="43" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A43" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="52">
         <f t="shared" ref="B43:G43" si="10">B35-1</f>
         <v>9</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="52">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="52">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="52">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="52">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="52">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A44" s="51" t="s">
+    <row r="44" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A44" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="52">
         <f t="shared" ref="B44:G44" si="11">B36-1</f>
         <v>1</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="52">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="52">
         <f t="shared" si="11"/>
         <v>253</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="52">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="52">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" s="51" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A45" s="51" t="s">
+    <row r="45" s="52" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A45" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="52">
         <f t="shared" ref="B45:G45" si="12">B37-1</f>
         <v>19</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="52">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="52">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="52">
         <f t="shared" si="12"/>
         <v>177</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="52">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="52">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="51" customFormat="1" ht="13.2" spans="1:9">
-      <c r="A46" s="51" t="s">
+    <row r="46" s="52" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A46" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="52">
         <f t="shared" ref="B46:G46" si="13">B38-1</f>
         <v>8</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="52">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="52">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="52">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="52">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="52">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="51" t="s">
+      <c r="I46" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" s="51" customFormat="1" ht="13.2" spans="1:9">
-      <c r="A47" s="51" t="s">
+    <row r="47" s="52" customFormat="1" ht="13.2" spans="1:9">
+      <c r="A47" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="52">
         <f t="shared" ref="B47:G47" si="14">B39-1</f>
         <v>-1</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="52">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="52">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="52">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="52">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="52">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="H47" s="68">
+      <c r="H47" s="69">
         <f>SQRT(SUMPRODUCT(B26:G31,B42:G47)/SUMIF(B42:G47,"&gt;1"))</f>
         <v>0.958348956858684</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="69">
         <f>H47/H39</f>
         <v>1.27043780339003</v>
       </c>
@@ -3342,10 +3379,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.15" defaultRowHeight="13.8"/>
@@ -3381,102 +3418,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="37" customFormat="1" spans="1:11">
+    <row r="4" s="37" customFormat="1" ht="29" customHeight="1" spans="1:11">
       <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="38">
-        <v>0.43</v>
-      </c>
-      <c r="C4" s="39">
-        <v>2.7</v>
-      </c>
-      <c r="D4" s="39">
-        <v>1.04</v>
-      </c>
-      <c r="E4" s="40">
-        <f>AVERAGE(C4:C6,D4:D5)</f>
-        <v>1.746</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" s="37" customFormat="1" spans="1:11">
+      <c r="B4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" s="37" customFormat="1" ht="29" customHeight="1" spans="1:11">
       <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="38">
-        <v>0.53</v>
-      </c>
-      <c r="C5" s="39">
-        <v>1.79</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1.38</v>
-      </c>
-      <c r="E5" s="40">
-        <f t="shared" ref="E5:E7" si="0">E4</f>
-        <v>1.746</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" s="37" customFormat="1" spans="1:11">
+      <c r="B5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" s="37" customFormat="1" ht="29" customHeight="1" spans="1:11">
       <c r="A6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="39">
-        <v>1.82</v>
-      </c>
-      <c r="D6" s="40">
-        <f>AVERAGE(D4:D5)</f>
-        <v>1.21</v>
-      </c>
-      <c r="E6" s="40">
-        <f t="shared" si="0"/>
-        <v>1.746</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" s="37" customFormat="1" spans="1:11">
+      <c r="B6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" s="37" customFormat="1" ht="29" customHeight="1" spans="1:11">
       <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="41">
-        <f>AVERAGE(B4:B6)</f>
-        <v>0.486666666666667</v>
-      </c>
-      <c r="C7" s="40">
-        <f>AVERAGE(C4:C6)</f>
-        <v>2.10333333333333</v>
-      </c>
-      <c r="D7" s="40">
-        <f>AVERAGE(D4:D5)</f>
-        <v>1.21</v>
-      </c>
-      <c r="E7" s="40">
-        <f t="shared" si="0"/>
-        <v>1.746</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="9" s="37" customFormat="1" hidden="1" spans="1:1">
       <c r="A9" s="37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="37" customFormat="1" hidden="1" spans="2:5">
@@ -3506,10 +3519,10 @@
       <c r="D11" s="37">
         <v>0.18</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="50"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" s="37" customFormat="1" hidden="1" spans="1:11">
       <c r="A12" s="37" t="s">
@@ -3524,10 +3537,10 @@
       <c r="D12" s="37">
         <v>0.22</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="50"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" s="37" customFormat="1" hidden="1" spans="1:11">
       <c r="A13" s="37" t="s">
@@ -3539,24 +3552,24 @@
       <c r="C13" s="37">
         <v>0.33</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" s="37" customFormat="1" hidden="1" spans="1:11">
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" hidden="1"/>
     <row r="16" s="37" customFormat="1" hidden="1" spans="1:1">
       <c r="A16" s="37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" s="37" customFormat="1" hidden="1" spans="2:5">
@@ -3577,105 +3590,110 @@
       <c r="A18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="43" t="e">
         <f>B11/B4</f>
-        <v>0.162790697674419</v>
-      </c>
-      <c r="C18" s="43">
-        <f t="shared" ref="C18:C20" si="1">C11/C4</f>
-        <v>0.251851851851852</v>
-      </c>
-      <c r="D18" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="44" t="e">
+        <f t="shared" ref="C18:C20" si="0">C11/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="44" t="e">
         <f>D11/D4</f>
-        <v>0.173076923076923</v>
-      </c>
-      <c r="E18" s="44">
-        <f t="shared" ref="E18:E21" si="2">AVERAGE($C$18:$C$20,$D$18:$D$19)</f>
-        <v>0.174362599499835</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="45" t="e">
+        <f t="shared" ref="E18:E21" si="1">AVERAGE($C$18:$C$20,$D$18:$D$19)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" s="37" customFormat="1" hidden="1" spans="1:5">
       <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="43" t="e">
         <f>B12/B5</f>
-        <v>0.735849056603774</v>
-      </c>
-      <c r="C19" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="44" t="e">
+        <f>D12/D5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="45" t="e">
         <f t="shared" si="1"/>
-        <v>0.106145251396648</v>
-      </c>
-      <c r="D19" s="43">
-        <f>D12/D5</f>
-        <v>0.159420289855072</v>
-      </c>
-      <c r="E19" s="44">
-        <f t="shared" si="2"/>
-        <v>0.174362599499835</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" s="37" customFormat="1" hidden="1" spans="1:5">
       <c r="A20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="43" t="e">
         <f>B13/B6</f>
-        <v>1.72</v>
-      </c>
-      <c r="C20" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="45" t="e">
+        <f>AVERAGE(D18:D19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="45" t="e">
         <f t="shared" si="1"/>
-        <v>0.181318681318681</v>
-      </c>
-      <c r="D20" s="44">
-        <f>AVERAGE(D18:D19)</f>
-        <v>0.166248606465998</v>
-      </c>
-      <c r="E20" s="44">
-        <f t="shared" si="2"/>
-        <v>0.174362599499835</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" s="37" customFormat="1" hidden="1" spans="1:5">
       <c r="A21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="46" t="e">
         <f>AVERAGE(B18:B20)</f>
-        <v>0.872879918092731</v>
-      </c>
-      <c r="C21" s="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="45" t="e">
         <f>AVERAGE(C18:C20)</f>
-        <v>0.17977192818906</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="45" t="e">
         <f>AVERAGE(D18:D19)</f>
-        <v>0.166248606465998</v>
-      </c>
-      <c r="E21" s="44">
-        <f t="shared" si="2"/>
-        <v>0.174362599499835</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="45" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" hidden="1"/>
     <row r="23" s="37" customFormat="1" spans="1:1">
       <c r="A23" s="37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" s="37" customFormat="1" spans="1:1">
-      <c r="A24" s="46" t="s">
-        <v>32</v>
+      <c r="A24" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" s="37" customFormat="1" spans="1:1">
-      <c r="A25" s="46" t="s">
-        <v>33</v>
+      <c r="A25" s="47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" s="37" customFormat="1" ht="12" customHeight="1" spans="1:1">
-      <c r="A26" s="47" t="s">
-        <v>34</v>
+      <c r="A26" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="37" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3717,23 +3735,23 @@
   <sheetData>
     <row r="1" s="21" customFormat="1" spans="1:2">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="21" customFormat="1" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" s="21" customFormat="1" spans="1:21">
       <c r="A4" s="21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>3</v>
@@ -3748,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>12</v>
@@ -3770,7 +3788,7 @@
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>12</v>
@@ -4014,7 +4032,7 @@
     </row>
     <row r="9" s="21" customFormat="1" spans="4:21">
       <c r="D9" s="21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E9" s="21">
         <f>AVERAGE(B5:E8)</f>
@@ -4062,7 +4080,7 @@
     </row>
     <row r="10" s="21" customFormat="1" spans="4:21">
       <c r="D10" s="21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E10" s="21">
         <f>AVERAGE(B5,C6,D7,E8)</f>
@@ -4106,7 +4124,7 @@
     </row>
     <row r="13" s="21" customFormat="1" spans="1:21">
       <c r="A13" s="21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -4121,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>12</v>
@@ -4143,7 +4161,7 @@
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>12</v>
@@ -4384,7 +4402,7 @@
     </row>
     <row r="18" s="21" customFormat="1" spans="4:21">
       <c r="D18" s="21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E18" s="21">
         <f>AVERAGE(B14:E17)</f>
@@ -4432,7 +4450,7 @@
     </row>
     <row r="19" s="21" customFormat="1" spans="4:21">
       <c r="D19" s="21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E19" s="21">
         <f>AVERAGE(B14,C15,D16,E17)</f>
@@ -4476,7 +4494,7 @@
     </row>
     <row r="22" s="21" customFormat="1" spans="1:21">
       <c r="A22" s="21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>3</v>
@@ -4491,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>12</v>
@@ -4513,7 +4531,7 @@
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>12</v>
@@ -4754,7 +4772,7 @@
     </row>
     <row r="27" s="21" customFormat="1" spans="4:21">
       <c r="D27" s="21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E27" s="21">
         <f>AVERAGE(B23:E26)</f>
@@ -4802,7 +4820,7 @@
     </row>
     <row r="28" s="21" customFormat="1" spans="4:21">
       <c r="D28" s="21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E28" s="21">
         <f>AVERAGE(B23,C24,D25,E26)</f>
@@ -4846,28 +4864,28 @@
     </row>
     <row r="30" s="21" customFormat="1" spans="1:1">
       <c r="A30" s="21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" s="21" customFormat="1" spans="1:1">
       <c r="A31" s="22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" s="21" customFormat="1" ht="27.6" spans="1:3">
       <c r="A32" s="21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" s="21" customFormat="1" spans="1:3">
       <c r="A33" s="21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B33" s="24">
         <v>0.882208588957055</v>
@@ -4878,7 +4896,7 @@
     </row>
     <row r="34" s="21" customFormat="1" spans="1:3">
       <c r="A34" s="21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B34" s="24">
         <v>0.825153374233129</v>
@@ -4889,7 +4907,7 @@
     </row>
     <row r="35" s="21" customFormat="1" spans="1:3">
       <c r="A35" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B35" s="24">
         <v>0.679754601226993</v>
@@ -4948,7 +4966,7 @@
     </row>
     <row r="42" s="21" customFormat="1" spans="1:3">
       <c r="A42" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B42" s="24">
         <v>0.335582822085889</v>
@@ -4963,40 +4981,40 @@
     </row>
     <row r="44" s="21" customFormat="1" spans="1:2">
       <c r="A44" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" s="21" customFormat="1" spans="1:1">
       <c r="A45" s="22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" s="21" customFormat="1" spans="1:9">
       <c r="A46" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" s="21" customFormat="1" spans="1:9">
       <c r="A47" s="21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B47" s="21">
         <v>1</v>
@@ -5005,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H47" s="21">
         <v>1</v>
@@ -5016,7 +5034,7 @@
     </row>
     <row r="48" s="21" customFormat="1" spans="1:9">
       <c r="A48" s="21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B48" s="21">
         <v>1.12227074235807</v>
@@ -5025,7 +5043,7 @@
         <v>3.47598253275108</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H48" s="21">
         <v>0.971462998293</v>
@@ -5036,7 +5054,7 @@
     </row>
     <row r="49" s="21" customFormat="1" spans="1:9">
       <c r="A49" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B49" s="21">
         <v>1.21397379912663</v>
@@ -5045,7 +5063,7 @@
         <v>4.57641921397379</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H49" s="21">
         <v>1.14125112963148</v>
@@ -5084,40 +5102,40 @@
     </row>
     <row r="53" s="21" customFormat="1" spans="1:2">
       <c r="A53" s="21" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" s="21" customFormat="1" spans="1:1">
       <c r="A54" s="22" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" s="21" customFormat="1" spans="1:7">
       <c r="A55" s="21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" s="21" customFormat="1" spans="1:7">
       <c r="A56" s="21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B56" s="24">
         <v>0.64</v>
@@ -5137,7 +5155,7 @@
     </row>
     <row r="57" s="21" customFormat="1" spans="1:7">
       <c r="A57" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B57" s="24">
         <v>0.35</v>
@@ -5157,7 +5175,7 @@
     </row>
     <row r="58" s="21" customFormat="1" spans="1:7">
       <c r="A58" s="21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B58" s="21">
         <v>0.56</v>
@@ -5177,44 +5195,44 @@
     </row>
     <row r="63" s="21" customFormat="1" spans="1:1">
       <c r="A63" s="21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" s="21" customFormat="1" spans="1:1">
       <c r="A64" s="22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" s="21" customFormat="1" spans="1:9">
       <c r="A66" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" s="21" customFormat="1" spans="1:9">
       <c r="A67" s="21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B67" s="24">
         <v>0.609504132231404</v>
@@ -5241,7 +5259,7 @@
     </row>
     <row r="68" s="21" customFormat="1" spans="1:9">
       <c r="A68" s="21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B68" s="24">
         <v>0.836776859504132</v>
@@ -5268,7 +5286,7 @@
     </row>
     <row r="69" s="21" customFormat="1" spans="1:9">
       <c r="A69" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B69" s="24">
         <v>0.81198347107438</v>
@@ -5439,7 +5457,7 @@
     </row>
     <row r="76" s="21" customFormat="1" spans="1:9">
       <c r="A76" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B76" s="24">
         <v>0.706611570247933</v>
@@ -5466,7 +5484,7 @@
     </row>
     <row r="77" s="21" customFormat="1" spans="1:9">
       <c r="A77" s="21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B77" s="21">
         <v>0.390495867768595</v>
@@ -5492,16 +5510,16 @@
     </row>
     <row r="81" s="21" customFormat="1" spans="2:5">
       <c r="B81" s="21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5542,106 +5560,106 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" ht="69" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" ht="69" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" ht="124.2" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4" s="12">
         <v>36</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="1" ht="82.8" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5" s="12">
         <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="1" ht="55.2" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" s="12" customFormat="1" ht="69" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C7" s="12">
         <v>4.6</v>
@@ -5650,101 +5668,101 @@
         <v>2.5</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="1" ht="55.2" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="12" customFormat="1" ht="55.2" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" ht="69" spans="1:9">
       <c r="A10" s="13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" s="12" customFormat="1" ht="69" spans="1:7">
       <c r="A11" s="15" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B11" s="12">
         <v>32</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="1" ht="69" spans="1:7">
       <c r="A12" s="13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" s="12" customFormat="1" ht="55.2" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" s="12" customFormat="1" ht="82.8" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B14" s="17">
         <v>32</v>
@@ -5753,10 +5771,10 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="19" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" s="12" customFormat="1" spans="1:3">
@@ -5839,160 +5857,160 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E2" s="6">
         <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
         <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7">
         <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7">
         <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
